--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="703">
   <si>
     <t>epub30-test-0100.epub</t>
   </si>
@@ -1933,12 +1933,223 @@
   <si>
     <t>Raw Score</t>
   </si>
+  <si>
+    <t>Accessible Content</t>
+  </si>
+  <si>
+    <t>epub30-test-0300.epub</t>
+  </si>
+  <si>
+    <t>Tests fundamental accessibility of the Reading System for users with disabilities.[UNDER CONSTRUCTION]</t>
+  </si>
+  <si>
+    <t>file-010</t>
+  </si>
+  <si>
+    <t>FUNDAMENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The device can be started independently and essential accessibility for starting and exiting applications is available.
+</t>
+  </si>
+  <si>
+    <t>file-110</t>
+  </si>
+  <si>
+    <t>The reading system can be activated independently.</t>
+  </si>
+  <si>
+    <t>file-310</t>
+  </si>
+  <si>
+    <t>Open content: Open the test book in the Reading System.</t>
+  </si>
+  <si>
+    <t>file-410</t>
+  </si>
+  <si>
+    <t>Access list of available content in the reading system.</t>
+  </si>
+  <si>
+    <t>reading-010</t>
+  </si>
+  <si>
+    <t>reading-110</t>
+  </si>
+  <si>
+    <t>Start and stop reading at the same reading location.</t>
+  </si>
+  <si>
+    <t>Initiate “read from here”</t>
+  </si>
+  <si>
+    <t>reading-210</t>
+  </si>
+  <si>
+    <t>All text should be read in the proper order.</t>
+  </si>
+  <si>
+    <t>reading-310</t>
+  </si>
+  <si>
+    <t>Ensure that the alternate text for the image is available.</t>
+  </si>
+  <si>
+    <t>reading-410</t>
+  </si>
+  <si>
+    <t>Change reading speed.</t>
+  </si>
+  <si>
+    <t>reading-510</t>
+  </si>
+  <si>
+    <t>Change reading volume through the application or the operating system.</t>
+  </si>
+  <si>
+    <t>reading-610</t>
+  </si>
+  <si>
+    <t>TTS allows pause for indicating headings, paragraphs, list items, etc.</t>
+  </si>
+  <si>
+    <t>nav-710</t>
+  </si>
+  <si>
+    <t>Read by character, word and line. Check if it is possible to read the sample paragraph by character, words and lines.</t>
+  </si>
+  <si>
+    <t>visual-010</t>
+  </si>
+  <si>
+    <t>Change font size.</t>
+  </si>
+  <si>
+    <t>visual-110</t>
+  </si>
+  <si>
+    <t>Change font color.</t>
+  </si>
+  <si>
+    <t>visual-210</t>
+  </si>
+  <si>
+    <t>Change background and foreground color (May be through reading system feature or through OS settings).</t>
+  </si>
+  <si>
+    <t>visual-510</t>
+  </si>
+  <si>
+    <t>Change brightness.</t>
+  </si>
+  <si>
+    <t>visual-610</t>
+  </si>
+  <si>
+    <t>Select a pre-defined style theme or apply high contrast system configuration.</t>
+  </si>
+  <si>
+    <t>visual-710</t>
+  </si>
+  <si>
+    <t>Magnify the UI.</t>
+  </si>
+  <si>
+    <t>nav-010</t>
+  </si>
+  <si>
+    <t>Navigate to chapters through the Table of Contents.</t>
+  </si>
+  <si>
+    <t>nav-110</t>
+  </si>
+  <si>
+    <t>Navigate content by pages.</t>
+  </si>
+  <si>
+    <t>nav-210</t>
+  </si>
+  <si>
+    <t>Navigate between the tables.</t>
+  </si>
+  <si>
+    <t>nav-310</t>
+  </si>
+  <si>
+    <t>Navigate between the cells, rows and columns in the table.</t>
+  </si>
+  <si>
+    <t>nav-410</t>
+  </si>
+  <si>
+    <t>Navigate page elements - lists, figures, sidebars, etc..</t>
+  </si>
+  <si>
+    <t>nav-510</t>
+  </si>
+  <si>
+    <t>Navigate by reflowed page number.</t>
+  </si>
+  <si>
+    <t>nav-610</t>
+  </si>
+  <si>
+    <t>Test navigation between internal hyperlinks.</t>
+  </si>
+  <si>
+    <t>nav-810</t>
+  </si>
+  <si>
+    <t>Read navigation information (e.g., page number, current structural hierarchy and/or headings).</t>
+  </si>
+  <si>
+    <t>nav-910</t>
+  </si>
+  <si>
+    <t>Move to the next item during reading.</t>
+  </si>
+  <si>
+    <t>nav-1010</t>
+  </si>
+  <si>
+    <t>Perform a search, review the search results and navigate to the selected search result in the content.</t>
+  </si>
+  <si>
+    <t>nav-1110</t>
+  </si>
+  <si>
+    <t>Navigate the content by headings.</t>
+  </si>
+  <si>
+    <t>anno-010</t>
+  </si>
+  <si>
+    <t>Add a bookmark.</t>
+  </si>
+  <si>
+    <t>anno-110</t>
+  </si>
+  <si>
+    <t>Review and navigate Bookmarks.</t>
+  </si>
+  <si>
+    <t>anno-210</t>
+  </si>
+  <si>
+    <t>Add a note.</t>
+  </si>
+  <si>
+    <t>anno-310</t>
+  </si>
+  <si>
+    <t>Review and navigate Notes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2002,6 +2213,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2112,7 +2335,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2139,9 +2362,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2163,6 +2383,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2178,8 +2422,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2520,44 +2762,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E438"/>
+  <dimension ref="A2:E478"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C348" sqref="C348"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="35" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="58.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="62.5" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="18" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="31"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>598</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2566,7 +2808,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
         <v>599</v>
       </c>
@@ -2577,43 +2819,43 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="5" t="s">
         <v>601</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="5" t="s">
         <v>603</v>
       </c>
@@ -2624,7 +2866,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="5" t="s">
         <v>604</v>
       </c>
@@ -2635,7 +2877,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
         <v>595</v>
       </c>
@@ -2646,7 +2888,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="5" t="s">
         <v>596</v>
       </c>
@@ -2655,7 +2897,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
         <v>597</v>
       </c>
@@ -2664,14 +2906,14 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="5" t="s">
         <v>594</v>
       </c>
@@ -2682,7 +2924,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="5" t="s">
         <v>589</v>
       </c>
@@ -2693,7 +2935,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="5" t="s">
         <v>590</v>
       </c>
@@ -2702,18 +2944,18 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
         <v>591</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5" t="s">
         <v>592</v>
       </c>
@@ -2724,14 +2966,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="6"/>
       <c r="D23" s="12"/>
       <c r="E23" s="6"/>
@@ -2740,16 +2982,18 @@
       <c r="A24" s="9" t="s">
         <v>614</v>
       </c>
+      <c r="B24" s="32"/>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="33" t="s">
         <v>632</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2761,11 +3005,11 @@
       <c r="A27" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B27" s="5">
-        <f>SUM(C45:C101)</f>
+      <c r="B27" s="34">
+        <f>SUM(C46:C102)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="27">
         <f>(B27/56)</f>
         <v>0</v>
       </c>
@@ -2775,11 +3019,11 @@
       <c r="A28" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B28" s="5">
-        <f>SUM(C109:C151)</f>
+      <c r="B28" s="34">
+        <f>SUM(C110:C152)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="26">
         <f>B28/43</f>
         <v>0</v>
       </c>
@@ -2789,12 +3033,12 @@
       <c r="A29" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B29" s="5">
-        <f>SUM(C159:C206)</f>
+      <c r="B29" s="34">
+        <f>SUM(C160:C207)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="31">
-        <f>B29/48</f>
+      <c r="C29" s="26">
+        <f>B29/56</f>
         <v>0</v>
       </c>
       <c r="D29" s="12"/>
@@ -2803,11 +3047,11 @@
       <c r="A30" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B30" s="5">
-        <f>SUM(C214:C226)</f>
+      <c r="B30" s="34">
+        <f>SUM(C215:C227)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="26">
         <f>B30/13</f>
         <v>0</v>
       </c>
@@ -2817,11 +3061,11 @@
       <c r="A31" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B31" s="5">
-        <f>SUM(C233:C260)</f>
+      <c r="B31" s="34">
+        <f>SUM(C234:C261)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="26">
         <f>B31/28</f>
         <v>0</v>
       </c>
@@ -2831,11 +3075,11 @@
       <c r="A32" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B32" s="5">
-        <f>SUM(C267:C308)</f>
+      <c r="B32" s="34">
+        <f>SUM(C268:C309)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="26">
         <f>B32/42</f>
         <v>0</v>
       </c>
@@ -2845,11 +3089,11 @@
       <c r="A33" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B33" s="5">
-        <f>SUM(C316:C321,C323)</f>
+      <c r="B33" s="34">
+        <f>SUM(C317:C322,C324)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="26">
         <f>B33/7</f>
         <v>0</v>
       </c>
@@ -2859,11 +3103,11 @@
       <c r="A34" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B34" s="5">
-        <f>SUM(C330:C341)</f>
+      <c r="B34" s="34">
+        <f>SUM(C331:C342)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="26">
         <f>B34/12</f>
         <v>0</v>
       </c>
@@ -2873,11 +3117,11 @@
       <c r="A35" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B35" s="5">
-        <f>SUM(C348,C355,C362,C369,C376,C383,C390,C397,C404,C411,C412,C419,C420,C421,C422)</f>
+      <c r="B35" s="34">
+        <f>SUM(C349,C356,C363,C370,C377,C384,C391,C398,C405,C412,C413,C420,C421,C422,C423)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="26">
         <f>B35/15</f>
         <v>0</v>
       </c>
@@ -2887,11 +3131,11 @@
       <c r="A36" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B36" s="5">
-        <f>SUM(C429:C438)</f>
+      <c r="B36" s="34">
+        <f>SUM(C430:C439)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="26">
         <f>B36/10</f>
         <v>0</v>
       </c>
@@ -2899,4221 +3143,4692 @@
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B37" s="34">
+        <f>SUM(C446:C478)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="26">
+        <f>B37/32</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B37" s="5">
-        <f>SUM(B27:B36)</f>
+      <c r="B38" s="34">
+        <f>SUM(B27:B37)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="31">
-        <f>B37/269</f>
+      <c r="C38" s="26">
+        <f>B38/301</f>
         <v>0</v>
       </c>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>434</v>
-      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
     </row>
     <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>31</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>449</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B73" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>455</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>457</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B81" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B81" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>57</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="B93" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>472</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>73</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="28"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="41"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4" t="s">
+      <c r="B102" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E108" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
+    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-    </row>
-    <row r="109" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
     </row>
     <row r="110" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B111" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B112" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B115" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B123" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B124" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B124" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B127" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B129" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B130" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B131" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B132" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B132" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B133" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B133" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B135" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B135" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B136" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B137" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B138" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B139" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B139" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B140" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B141" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B142" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B142" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B143" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B144" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B144" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B145" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B145" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B147" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B148" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B149" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B150" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B151" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B158" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C158" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D158" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E157" s="7" t="s">
+      <c r="E158" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="30" t="s">
+    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-    </row>
-    <row r="159" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4" t="s">
-        <v>517</v>
-      </c>
+      <c r="B159" s="43"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
     </row>
     <row r="160" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
+        <v>129</v>
+      </c>
+      <c r="B160" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B161" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B161" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B162" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B162" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B165" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B165" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B166" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B167" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B167" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B168" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B168" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B169" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B169" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B170" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>141</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B171" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B172" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B172" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>528</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B173" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B173" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B174" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B174" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B175" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B176" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B177" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B177" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B178" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B179" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>7</v>
+        <v>156</v>
+      </c>
+      <c r="B181" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>532</v>
+        <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>18</v>
+        <v>158</v>
+      </c>
+      <c r="B182" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B183" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B184" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B184" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B185" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B185" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B186" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B186" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B187" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B188" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B189" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B190" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B191" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B192" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B193" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B194" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B194" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B195" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B195" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B196" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B197" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B197" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B198" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B198" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B199" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B199" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B200" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B200" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B201" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B201" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B202" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B202" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B203" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B203" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B204" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B204" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B205" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B205" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B206" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B206" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="7" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B213" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E212" s="7" t="s">
+      <c r="E213" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="30" t="s">
+    <row r="214" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B213" s="30"/>
-      <c r="C213" s="30"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
-    </row>
-    <row r="214" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="B214" s="43"/>
+      <c r="C214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
     </row>
     <row r="215" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B215" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B215" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B216" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B217" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B217" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B218" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B218" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B219" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B219" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B220" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B220" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>557</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B221" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B221" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>201</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B222" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B223" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B223" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B224" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B224" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B225" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B225" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B226" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B226" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B227" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="7" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B233" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E232" s="7" t="s">
+      <c r="E233" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+    <row r="234" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
-      <c r="E233" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B235" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B235" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B236" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B236" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B237" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B237" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B238" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B238" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B239" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B239" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B240" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B240" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B241" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B241" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B242" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B242" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B243" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B243" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B244" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B244" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B245" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B245" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B246" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B246" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>7</v>
+        <v>240</v>
+      </c>
+      <c r="B247" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4" t="s">
-        <v>558</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B248" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B249" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B249" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>18</v>
+        <v>244</v>
+      </c>
+      <c r="B250" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4" t="s">
-        <v>246</v>
+        <v>560</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B251" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B251" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B252" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B252" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B253" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B253" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B254" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B254" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B255" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B258" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B259" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B259" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="29" t="s">
+    <row r="265" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="B264" s="29"/>
-      <c r="C264" s="29"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
+      <c r="B265" s="42"/>
+      <c r="C265" s="42"/>
+      <c r="D265" s="42"/>
+      <c r="E265" s="42"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B267" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C267" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D267" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E266" s="7" t="s">
+      <c r="E267" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A267" s="25" t="s">
+    <row r="268" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A268" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B267" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C267" s="25"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A268" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B268" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C268" s="25"/>
+      <c r="B268" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="24"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>271</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A269" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C269" s="25"/>
+      <c r="A269" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="24"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A270" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B270" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" s="25"/>
+      <c r="A270" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B270" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="24"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A271" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C271" s="25"/>
+      <c r="A271" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="24"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A272" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B272" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C272" s="25"/>
+      <c r="A272" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B272" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="24"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B273" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="25"/>
+        <v>278</v>
+      </c>
+      <c r="B273" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="24"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B274" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" s="25"/>
+        <v>280</v>
+      </c>
+      <c r="B274" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="24"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B275" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="25"/>
+        <v>282</v>
+      </c>
+      <c r="B275" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="24"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B276" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C276" s="25"/>
+        <v>284</v>
+      </c>
+      <c r="B276" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="24"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B277" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" s="25"/>
+        <v>286</v>
+      </c>
+      <c r="B277" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="24"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B278" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C278" s="25"/>
+        <v>288</v>
+      </c>
+      <c r="B278" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="24"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B279" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" s="25"/>
+        <v>290</v>
+      </c>
+      <c r="B279" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="24"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B280" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" s="25"/>
+        <v>292</v>
+      </c>
+      <c r="B280" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="24"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B281" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281" s="25"/>
+        <v>294</v>
+      </c>
+      <c r="B281" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="24"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B282" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" s="25"/>
+        <v>296</v>
+      </c>
+      <c r="B282" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="24"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B283" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="25"/>
+        <v>297</v>
+      </c>
+      <c r="B283" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="24"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B284" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" s="25"/>
+        <v>299</v>
+      </c>
+      <c r="B284" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="24"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B285" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C285" s="25"/>
+        <v>301</v>
+      </c>
+      <c r="B285" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="24"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B286" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C286" s="25"/>
+        <v>303</v>
+      </c>
+      <c r="B286" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="24"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B287" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C287" s="25"/>
+        <v>304</v>
+      </c>
+      <c r="B287" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="24"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B288" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="25"/>
+        <v>306</v>
+      </c>
+      <c r="B288" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="24"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B289" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="25"/>
+        <v>308</v>
+      </c>
+      <c r="B289" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="24"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B290" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="25"/>
+        <v>309</v>
+      </c>
+      <c r="B290" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="24"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B291" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="25"/>
+        <v>311</v>
+      </c>
+      <c r="B291" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="24"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B292" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="25"/>
+        <v>313</v>
+      </c>
+      <c r="B292" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="24"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B293" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C293" s="25"/>
+        <v>315</v>
+      </c>
+      <c r="B293" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="24"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B294" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="25"/>
+        <v>317</v>
+      </c>
+      <c r="B294" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="24"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B295" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="25"/>
+        <v>319</v>
+      </c>
+      <c r="B295" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="24"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B296" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" s="25"/>
+        <v>321</v>
+      </c>
+      <c r="B296" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="24"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B297" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C297" s="25"/>
+        <v>323</v>
+      </c>
+      <c r="B297" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="24"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B298" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C298" s="25"/>
+        <v>325</v>
+      </c>
+      <c r="B298" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="24"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B299" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C299" s="25"/>
+        <v>327</v>
+      </c>
+      <c r="B299" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="24"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B300" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C300" s="25"/>
+        <v>329</v>
+      </c>
+      <c r="B300" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="24"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B301" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C301" s="25"/>
+        <v>331</v>
+      </c>
+      <c r="B301" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="24"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C302" s="25"/>
+        <v>333</v>
+      </c>
+      <c r="B302" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="24"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C303" s="25"/>
+        <v>335</v>
+      </c>
+      <c r="B303" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="24"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C304" s="25"/>
+        <v>337</v>
+      </c>
+      <c r="B304" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="24"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C305" s="25"/>
+        <v>339</v>
+      </c>
+      <c r="B305" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="24"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C306" s="25"/>
+        <v>341</v>
+      </c>
+      <c r="B306" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="24"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C307" s="25"/>
+        <v>343</v>
+      </c>
+      <c r="B307" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="24"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C308" s="25"/>
+        <v>345</v>
+      </c>
+      <c r="B308" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="24"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B309" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="24"/>
+      <c r="D309" s="4"/>
+      <c r="E309" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="7" t="s">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B315" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C314" s="7" t="s">
+      <c r="C315" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D314" s="7" t="s">
+      <c r="D315" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E314" s="7" t="s">
+      <c r="E315" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="26" t="s">
+    <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="39" t="s">
         <v>351</v>
       </c>
-      <c r="B315" s="27"/>
-      <c r="C315" s="27"/>
-      <c r="D315" s="27"/>
-      <c r="E315" s="28"/>
-    </row>
-    <row r="316" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A316" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="B316" s="40"/>
+      <c r="C316" s="40"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="41"/>
     </row>
     <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B317" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B317" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B318" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B318" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B319" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B319" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B320" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B320" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>18</v>
+        <v>360</v>
+      </c>
+      <c r="B321" s="34" t="s">
+        <v>7</v>
       </c>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B322" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4"/>
+      <c r="E322" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="26" t="s">
+    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="39" t="s">
         <v>364</v>
       </c>
-      <c r="B322" s="27"/>
-      <c r="C322" s="27"/>
-      <c r="D322" s="27"/>
-      <c r="E322" s="28"/>
-    </row>
-    <row r="323" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A323" s="4" t="s">
+      <c r="B323" s="40"/>
+      <c r="C323" s="40"/>
+      <c r="D323" s="40"/>
+      <c r="E323" s="41"/>
+    </row>
+    <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4" t="s">
+      <c r="B324" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B330" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C330" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="D330" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E329" s="7" t="s">
+      <c r="E330" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="4" t="s">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B330" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A331" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B332" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B332" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B333" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B333" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B334" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B334" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B335" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B335" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B336" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B336" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B337" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B337" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B338" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B338" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B339" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B339" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B340" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B340" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B341" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B341" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B342" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="4"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B348" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C347" s="7" t="s">
+      <c r="C348" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D347" s="7" t="s">
+      <c r="D348" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E347" s="7" t="s">
+      <c r="E348" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
+    <row r="349" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B348" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4" t="s">
+      <c r="B349" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="7" t="s">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B355" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C354" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D355" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E354" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
+    <row r="356" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B355" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4" t="s">
+      <c r="B356" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" s="4"/>
+      <c r="D356" s="4"/>
+      <c r="E356" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B362" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C361" s="7" t="s">
+      <c r="C362" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="D362" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E361" s="7" t="s">
+      <c r="E362" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
+    <row r="363" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B362" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4" t="s">
+      <c r="B363" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363" s="4"/>
+      <c r="D363" s="4"/>
+      <c r="E363" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="7" t="s">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B369" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C368" s="7" t="s">
+      <c r="C369" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D368" s="7" t="s">
+      <c r="D369" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E368" s="7" t="s">
+      <c r="E369" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
+    <row r="370" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4" t="s">
+      <c r="B370" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="5"/>
-      <c r="B370" s="5"/>
-      <c r="C370" s="5"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="5"/>
-    </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="5"/>
+      <c r="B371" s="34"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="5"/>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B376" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C375" s="7" t="s">
+      <c r="C376" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D375" s="7" t="s">
+      <c r="D376" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E375" s="7" t="s">
+      <c r="E376" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A376" s="4" t="s">
+    <row r="377" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B376" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4" t="s">
+      <c r="B377" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+      <c r="E377" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B383" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C383" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D382" s="7" t="s">
+      <c r="D383" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E382" s="7" t="s">
+      <c r="E383" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A383" s="4" t="s">
+    <row r="384" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B383" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="4" t="s">
+      <c r="B384" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="2" t="s">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="7" t="s">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B390" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C389" s="7" t="s">
+      <c r="C390" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D389" s="7" t="s">
+      <c r="D390" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E389" s="7" t="s">
+      <c r="E390" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
+    <row r="391" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B390" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="4" t="s">
+      <c r="B391" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" s="4"/>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="2" t="s">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="7" t="s">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B397" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C396" s="7" t="s">
+      <c r="C397" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D396" s="7" t="s">
+      <c r="D397" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E396" s="7" t="s">
+      <c r="E397" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A397" s="4" t="s">
+    <row r="398" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B397" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4" t="s">
+      <c r="B398" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C398" s="4"/>
+      <c r="D398" s="4"/>
+      <c r="E398" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="2" t="s">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="7" t="s">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B404" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C403" s="7" t="s">
+      <c r="C404" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D403" s="7" t="s">
+      <c r="D404" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E403" s="7" t="s">
+      <c r="E404" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A404" s="4" t="s">
+    <row r="405" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B404" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4" t="s">
+      <c r="B405" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+      <c r="E405" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="5"/>
-      <c r="B405" s="5"/>
-      <c r="C405" s="5"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="5"/>
-    </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="A406" s="5"/>
+      <c r="B406" s="34"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="2" t="s">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="7" t="s">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B410" s="7" t="s">
+      <c r="B411" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C410" s="7" t="s">
+      <c r="C411" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D410" s="7" t="s">
+      <c r="D411" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E410" s="7" t="s">
+      <c r="E411" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A411" s="4" t="s">
+    <row r="412" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B411" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
-      <c r="E411" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A412" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B412" s="4" t="s">
+      <c r="B412" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B413" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" s="4"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B419" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C418" s="7" t="s">
+      <c r="C419" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D418" s="7" t="s">
+      <c r="D419" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E418" s="7" t="s">
+      <c r="E419" s="7" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A419" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B419" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="4" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B420" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B420" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B421" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B421" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B422" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B422" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B423" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423" s="4"/>
+      <c r="D423" s="4"/>
+      <c r="E423" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="2" t="s">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B429" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C428" s="7" t="s">
+      <c r="C429" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D428" s="7" t="s">
+      <c r="D429" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E428" s="7" t="s">
+      <c r="E429" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A429" s="4" t="s">
+    <row r="430" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B429" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B431" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B431" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B432" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B432" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B433" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B433" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B434" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B434" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B435" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B435" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B436" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B436" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B437" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B437" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4" t="s">
-        <v>432</v>
+        <v>241</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B438" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B438" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B439" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B445" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A446" s="25" t="s">
+        <v>636</v>
+      </c>
+      <c r="B446" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C446" s="25"/>
+      <c r="D446" s="25"/>
+      <c r="E446" s="28" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B447" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C447" s="25"/>
+      <c r="D447" s="25"/>
+      <c r="E447" s="38" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A448" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B448" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C448" s="25"/>
+      <c r="D448" s="25"/>
+      <c r="E448" s="38" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="B449" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C449" s="25"/>
+      <c r="D449" s="25"/>
+      <c r="E449" s="38" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="B450" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C450" s="25"/>
+      <c r="D450" s="25"/>
+      <c r="E450" s="38" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="B451" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C451" s="25"/>
+      <c r="D451" s="25"/>
+      <c r="E451" s="38" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="B452" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C452" s="25"/>
+      <c r="D452" s="25"/>
+      <c r="E452" s="38" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="B453" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C453" s="25"/>
+      <c r="D453" s="25"/>
+      <c r="E453" s="38" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="B454" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C454" s="25"/>
+      <c r="D454" s="25"/>
+      <c r="E454" s="38" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A455" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="B455" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C455" s="25"/>
+      <c r="D455" s="25"/>
+      <c r="E455" s="38" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A456" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="B456" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C456" s="25"/>
+      <c r="D456" s="25"/>
+      <c r="E456" s="38" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A457" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B457" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C457" s="25"/>
+      <c r="D457" s="25"/>
+      <c r="E457" s="38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B458" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C458" s="25"/>
+      <c r="D458" s="25"/>
+      <c r="E458" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="B459" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C459" s="25"/>
+      <c r="D459" s="25"/>
+      <c r="E459" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A460" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="B460" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C460" s="25"/>
+      <c r="D460" s="25"/>
+      <c r="E460" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B461" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C461" s="25"/>
+      <c r="D461" s="25"/>
+      <c r="E461" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A462" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B462" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C462" s="25"/>
+      <c r="D462" s="25"/>
+      <c r="E462" s="38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B463" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C463" s="25"/>
+      <c r="D463" s="25"/>
+      <c r="E463" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B464" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C464" s="25"/>
+      <c r="D464" s="25"/>
+      <c r="E464" s="38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B465" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C465" s="25"/>
+      <c r="D465" s="25"/>
+      <c r="E465" s="38" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="B466" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C466" s="25"/>
+      <c r="D466" s="25"/>
+      <c r="E466" s="38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A467" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="B467" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C467" s="25"/>
+      <c r="D467" s="25"/>
+      <c r="E467" s="38" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B468" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C468" s="25"/>
+      <c r="D468" s="25"/>
+      <c r="E468" s="38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="B469" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C469" s="25"/>
+      <c r="D469" s="25"/>
+      <c r="E469" s="38" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="B470" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C470" s="25"/>
+      <c r="D470" s="25"/>
+      <c r="E470" s="38" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A471" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B471" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C471" s="25"/>
+      <c r="D471" s="25"/>
+      <c r="E471" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B472" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C472" s="25"/>
+      <c r="D472" s="25"/>
+      <c r="E472" s="38" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A473" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B473" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C473" s="25"/>
+      <c r="D473" s="25"/>
+      <c r="E473" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="B474" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C474" s="25"/>
+      <c r="D474" s="25"/>
+      <c r="E474" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B475" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C475" s="25"/>
+      <c r="D475" s="25"/>
+      <c r="E475" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="B476" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C476" s="25"/>
+      <c r="D476" s="25"/>
+      <c r="E476" s="38" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B477" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C477" s="25"/>
+      <c r="D477" s="25"/>
+      <c r="E477" s="38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B478" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C478" s="25"/>
+      <c r="D478" s="25"/>
+      <c r="E478" s="38" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A315:E315"/>
-    <mergeCell ref="A322:E322"/>
-    <mergeCell ref="A264:E264"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A316:E316"/>
+    <mergeCell ref="A323:E323"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
     <hyperlink ref="E20" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="715">
   <si>
     <t>epub30-test-0100.epub</t>
   </si>
@@ -2143,6 +2144,42 @@
   </si>
   <si>
     <t>Review and navigate Notes.</t>
+  </si>
+  <si>
+    <t>Tests for Document Flow  [UNDER CONSTRUCTION]</t>
+  </si>
+  <si>
+    <t>Tests whether setting the global rendition:flow property to paginated results in dynamically paginated pages.</t>
+  </si>
+  <si>
+    <t>epub30-test-0110.epub</t>
+  </si>
+  <si>
+    <t>Document Flow</t>
+  </si>
+  <si>
+    <t>epub30-test-0111.epub</t>
+  </si>
+  <si>
+    <t>Tests for Scrolled Flow  [UNDER CONSTRUCTION]</t>
+  </si>
+  <si>
+    <t>flow-015</t>
+  </si>
+  <si>
+    <t>flow-010</t>
+  </si>
+  <si>
+    <t>Tests whether setting the global rendition:flow property to scrolled-doc results in scrollable documents.</t>
+  </si>
+  <si>
+    <t>epub30-test-0112.epub</t>
+  </si>
+  <si>
+    <t>Tests whether setting the global rendition:flow property to scrolled-continuous results in a continously scrolling interface.</t>
+  </si>
+  <si>
+    <t>flow-020</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2372,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2406,6 +2443,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2762,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E478"/>
+  <dimension ref="A2:E500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3049,7 @@
         <v>615</v>
       </c>
       <c r="B27" s="34">
-        <f>SUM(C46:C102)</f>
+        <f>SUM(C47:C103)</f>
         <v>0</v>
       </c>
       <c r="C27" s="27">
@@ -3020,7 +3063,7 @@
         <v>616</v>
       </c>
       <c r="B28" s="34">
-        <f>SUM(C110:C152)</f>
+        <f>SUM(C111:C153)</f>
         <v>0</v>
       </c>
       <c r="C28" s="26">
@@ -3034,7 +3077,7 @@
         <v>617</v>
       </c>
       <c r="B29" s="34">
-        <f>SUM(C160:C207)</f>
+        <f>SUM(C161:C208)</f>
         <v>0</v>
       </c>
       <c r="C29" s="26">
@@ -3048,7 +3091,7 @@
         <v>619</v>
       </c>
       <c r="B30" s="34">
-        <f>SUM(C215:C227)</f>
+        <f>SUM(C216:C228)</f>
         <v>0</v>
       </c>
       <c r="C30" s="26">
@@ -3059,172 +3102,173 @@
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="B31" s="34">
-        <f>SUM(C234:C261)</f>
+        <f>SUM(C235,C242,C249)</f>
         <v>0</v>
       </c>
       <c r="C31" s="26">
-        <f>B31/28</f>
+        <f>B31/3</f>
         <v>0</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B32" s="34">
-        <f>SUM(C268:C309)</f>
+        <f>SUM(C256:C283)</f>
         <v>0</v>
       </c>
       <c r="C32" s="26">
-        <f>B32/42</f>
+        <f>B32/28</f>
         <v>0</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B33" s="34">
-        <f>SUM(C317:C322,C324)</f>
+        <f>SUM(C290:C331)</f>
         <v>0</v>
       </c>
       <c r="C33" s="26">
-        <f>B33/7</f>
+        <f>B33/42</f>
         <v>0</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B34" s="34">
-        <f>SUM(C331:C342)</f>
+        <f>SUM(C339:C344,C346)</f>
         <v>0</v>
       </c>
       <c r="C34" s="26">
-        <f>B34/12</f>
+        <f>B34/7</f>
         <v>0</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B35" s="34">
-        <f>SUM(C349,C356,C363,C370,C377,C384,C391,C398,C405,C412,C413,C420,C421,C422,C423)</f>
+        <f>SUM(C353:C364)</f>
         <v>0</v>
       </c>
       <c r="C35" s="26">
-        <f>B35/15</f>
+        <f>B35/12</f>
         <v>0</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B36" s="34">
-        <f>SUM(C430:C439)</f>
+        <f>SUM(C371,C378,C385,C392,C399,C406,C413,C420,C427,C434,C435,C442,C443,C444,C445)</f>
         <v>0</v>
       </c>
       <c r="C36" s="26">
-        <f>B36/10</f>
+        <f>B36/15</f>
         <v>0</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B37" s="34">
-        <f>SUM(C446:C478)</f>
+        <f>SUM(C452:C461)</f>
         <v>0</v>
       </c>
       <c r="C37" s="26">
-        <f>B37/32</f>
+        <f>B37/10</f>
         <v>0</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B38" s="34">
+        <f>SUM(C468:C500)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="26">
+        <f>B38/32</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B38" s="34">
-        <f>SUM(B27:B37)</f>
+      <c r="B39" s="34">
+        <f>SUM(B27:B38)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="26">
-        <f>B38/301</f>
+      <c r="C39" s="26">
+        <f>B39/304</f>
         <v>0</v>
       </c>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="31"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="31"/>
+      <c r="D40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B45" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>434</v>
-      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>7</v>
@@ -3232,12 +3276,12 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>7</v>
@@ -3245,12 +3289,12 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>7</v>
@@ -3258,12 +3302,12 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>7</v>
@@ -3271,12 +3315,12 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="34" t="s">
         <v>7</v>
@@ -3284,12 +3328,12 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>7</v>
@@ -3297,25 +3341,25 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" s="34" t="s">
         <v>18</v>
@@ -3323,12 +3367,12 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" s="34" t="s">
         <v>18</v>
@@ -3336,12 +3380,12 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="34" t="s">
         <v>18</v>
@@ -3349,12 +3393,12 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>18</v>
@@ -3362,12 +3406,12 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="34" t="s">
         <v>18</v>
@@ -3375,12 +3419,12 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>18</v>
@@ -3388,12 +3432,12 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>18</v>
@@ -3401,25 +3445,25 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" s="34" t="s">
         <v>7</v>
@@ -3427,12 +3471,12 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="34" t="s">
         <v>7</v>
@@ -3440,12 +3484,12 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="34" t="s">
         <v>7</v>
@@ -3453,12 +3497,12 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="34" t="s">
         <v>7</v>
@@ -3466,12 +3510,12 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>31</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B66" s="34" t="s">
         <v>7</v>
@@ -3479,25 +3523,25 @@
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>449</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="34" t="s">
         <v>18</v>
@@ -3505,12 +3549,12 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>18</v>
@@ -3518,12 +3562,12 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>18</v>
@@ -3531,25 +3575,25 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>7</v>
@@ -3557,12 +3601,12 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>7</v>
@@ -3570,12 +3614,12 @@
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>7</v>
@@ -3583,12 +3627,12 @@
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>455</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>7</v>
@@ -3596,12 +3640,12 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" s="34" t="s">
         <v>7</v>
@@ -3609,12 +3653,12 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77" s="34" t="s">
         <v>7</v>
@@ -3622,12 +3666,12 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>7</v>
@@ -3635,12 +3679,12 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>457</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B79" s="34" t="s">
         <v>7</v>
@@ -3648,12 +3692,12 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>7</v>
@@ -3661,12 +3705,12 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>7</v>
@@ -3674,12 +3718,12 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="34" t="s">
         <v>7</v>
@@ -3687,12 +3731,12 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="34" t="s">
         <v>7</v>
@@ -3700,12 +3744,12 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>7</v>
@@ -3713,12 +3757,12 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="34" t="s">
         <v>7</v>
@@ -3726,12 +3770,12 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>7</v>
@@ -3739,12 +3783,12 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>57</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="34" t="s">
         <v>7</v>
@@ -3752,12 +3796,12 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>7</v>
@@ -3765,12 +3809,12 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>7</v>
@@ -3778,12 +3822,12 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>7</v>
@@ -3791,12 +3835,12 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>7</v>
@@ -3804,12 +3848,12 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>7</v>
@@ -3817,12 +3861,12 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="34" t="s">
         <v>7</v>
@@ -3830,38 +3874,38 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>68</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>7</v>
@@ -3869,12 +3913,12 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>472</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>7</v>
@@ -3882,12 +3926,12 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>7</v>
@@ -3895,12 +3939,12 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="34" t="s">
         <v>7</v>
@@ -3908,96 +3952,96 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>73</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39" t="s">
+    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="41"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="43"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B102" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4" t="s">
+      <c r="B103" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="36" t="s">
+      <c r="B109" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E109" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="43" t="s">
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-    </row>
-    <row r="110" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B110" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B111" s="34" t="s">
         <v>7</v>
@@ -4005,12 +4049,12 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>475</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" s="34" t="s">
         <v>7</v>
@@ -4018,12 +4062,12 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="34" t="s">
         <v>7</v>
@@ -4031,12 +4075,12 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>7</v>
@@ -4044,12 +4088,12 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>7</v>
@@ -4057,12 +4101,12 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>7</v>
@@ -4070,12 +4114,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>7</v>
@@ -4083,12 +4127,12 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>7</v>
@@ -4096,12 +4140,12 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>7</v>
@@ -4109,12 +4153,12 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>7</v>
@@ -4122,12 +4166,12 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>7</v>
@@ -4135,12 +4179,12 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>7</v>
@@ -4148,12 +4192,12 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>7</v>
@@ -4161,12 +4205,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>7</v>
@@ -4174,12 +4218,12 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>7</v>
@@ -4187,12 +4231,12 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>7</v>
@@ -4200,12 +4244,12 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="34" t="s">
         <v>7</v>
@@ -4213,12 +4257,12 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>7</v>
@@ -4226,12 +4270,12 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="34" t="s">
         <v>7</v>
@@ -4239,12 +4283,12 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>7</v>
@@ -4252,12 +4296,12 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="34" t="s">
         <v>7</v>
@@ -4265,12 +4309,12 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>7</v>
@@ -4278,12 +4322,12 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B133" s="34" t="s">
         <v>7</v>
@@ -4291,12 +4335,12 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B134" s="34" t="s">
         <v>7</v>
@@ -4304,12 +4348,12 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="34" t="s">
         <v>7</v>
@@ -4317,12 +4361,12 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="34" t="s">
         <v>7</v>
@@ -4330,12 +4374,12 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" s="34" t="s">
         <v>7</v>
@@ -4343,12 +4387,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B138" s="34" t="s">
         <v>7</v>
@@ -4356,12 +4400,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>7</v>
@@ -4369,12 +4413,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B140" s="34" t="s">
         <v>7</v>
@@ -4382,12 +4426,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>7</v>
@@ -4395,12 +4439,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B142" s="34" t="s">
         <v>7</v>
@@ -4408,12 +4452,12 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B143" s="34" t="s">
         <v>7</v>
@@ -4421,12 +4465,12 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B144" s="34" t="s">
         <v>7</v>
@@ -4434,12 +4478,12 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>7</v>
@@ -4447,12 +4491,12 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B146" s="34" t="s">
         <v>7</v>
@@ -4460,12 +4504,12 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B147" s="34" t="s">
         <v>7</v>
@@ -4473,12 +4517,12 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>7</v>
@@ -4486,12 +4530,12 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B149" s="34" t="s">
         <v>7</v>
@@ -4499,12 +4543,12 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>7</v>
@@ -4512,12 +4556,12 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B151" s="34" t="s">
         <v>7</v>
@@ -4525,12 +4569,12 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B152" s="34" t="s">
         <v>7</v>
@@ -4538,74 +4582,74 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="B159" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C159" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D159" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E158" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="43" t="s">
+    <row r="160" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B159" s="43"/>
-      <c r="C159" s="43"/>
-      <c r="D159" s="43"/>
-      <c r="E159" s="43"/>
-    </row>
-    <row r="160" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B160" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4" t="s">
-        <v>517</v>
-      </c>
+      <c r="B160" s="45"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
     </row>
     <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B162" s="34" t="s">
         <v>7</v>
@@ -4613,12 +4657,12 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" s="34" t="s">
         <v>7</v>
@@ -4626,25 +4670,25 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="34" t="s">
         <v>18</v>
@@ -4652,12 +4696,12 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B166" s="34" t="s">
         <v>18</v>
@@ -4665,12 +4709,12 @@
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="34" t="s">
         <v>18</v>
@@ -4678,12 +4722,12 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B168" s="34" t="s">
         <v>18</v>
@@ -4691,12 +4735,12 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B169" s="34" t="s">
         <v>18</v>
@@ -4704,12 +4748,12 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B170" s="34" t="s">
         <v>18</v>
@@ -4717,12 +4761,12 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B171" s="34" t="s">
         <v>18</v>
@@ -4730,12 +4774,12 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>141</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B172" s="34" t="s">
         <v>18</v>
@@ -4743,12 +4787,12 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>18</v>
@@ -4756,12 +4800,12 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>528</v>
+        <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B174" s="34" t="s">
         <v>18</v>
@@ -4769,12 +4813,12 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B175" s="34" t="s">
         <v>18</v>
@@ -4782,12 +4826,12 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B176" s="34" t="s">
         <v>18</v>
@@ -4795,12 +4839,12 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B177" s="34" t="s">
         <v>18</v>
@@ -4808,12 +4852,12 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B178" s="34" t="s">
         <v>18</v>
@@ -4821,12 +4865,12 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>18</v>
@@ -4834,12 +4878,12 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B180" s="34" t="s">
         <v>18</v>
@@ -4847,12 +4891,12 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B181" s="34" t="s">
         <v>18</v>
@@ -4860,38 +4904,38 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>532</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B184" s="34" t="s">
         <v>18</v>
@@ -4899,12 +4943,12 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B185" s="34" t="s">
         <v>18</v>
@@ -4912,12 +4956,12 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B186" s="34" t="s">
         <v>18</v>
@@ -4925,12 +4969,12 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="34" t="s">
         <v>18</v>
@@ -4938,12 +4982,12 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B188" s="34" t="s">
         <v>18</v>
@@ -4951,12 +4995,12 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B189" s="34" t="s">
         <v>18</v>
@@ -4964,12 +5008,12 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B190" s="34" t="s">
         <v>18</v>
@@ -4977,12 +5021,12 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B191" s="34" t="s">
         <v>18</v>
@@ -4990,12 +5034,12 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>18</v>
@@ -5003,12 +5047,12 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>18</v>
@@ -5016,12 +5060,12 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="34" t="s">
         <v>18</v>
@@ -5029,12 +5073,12 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="34" t="s">
         <v>18</v>
@@ -5042,12 +5086,12 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>544</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>18</v>
@@ -5055,12 +5099,12 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B197" s="34" t="s">
         <v>18</v>
@@ -5068,12 +5112,12 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B198" s="34" t="s">
         <v>18</v>
@@ -5081,12 +5125,12 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B199" s="34" t="s">
         <v>18</v>
@@ -5094,12 +5138,12 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B200" s="34" t="s">
         <v>18</v>
@@ -5107,12 +5151,12 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>18</v>
@@ -5120,12 +5164,12 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>18</v>
@@ -5133,12 +5177,12 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>18</v>
@@ -5146,12 +5190,12 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B204" s="34" t="s">
         <v>18</v>
@@ -5159,12 +5203,12 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B205" s="34" t="s">
         <v>18</v>
@@ -5172,12 +5216,12 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B206" s="34" t="s">
         <v>18</v>
@@ -5185,12 +5229,12 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>18</v>
@@ -5198,61 +5242,61 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B208" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="7" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="36" t="s">
+      <c r="B214" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C214" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D214" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E213" s="7" t="s">
+      <c r="E214" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="43" t="s">
+    <row r="215" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="B214" s="43"/>
-      <c r="C214" s="43"/>
-      <c r="D214" s="43"/>
-      <c r="E214" s="43"/>
-    </row>
-    <row r="215" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B215" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4" t="s">
-        <v>188</v>
-      </c>
+      <c r="B215" s="45"/>
+      <c r="C215" s="45"/>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
     </row>
     <row r="216" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B216" s="34" t="s">
         <v>7</v>
@@ -5260,12 +5304,12 @@
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B217" s="34" t="s">
         <v>7</v>
@@ -5273,12 +5317,12 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B218" s="34" t="s">
         <v>7</v>
@@ -5286,12 +5330,12 @@
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B219" s="34" t="s">
         <v>7</v>
@@ -5299,12 +5343,12 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B220" s="34" t="s">
         <v>7</v>
@@ -5312,12 +5356,12 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B221" s="34" t="s">
         <v>7</v>
@@ -5325,12 +5369,12 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>557</v>
+        <v>198</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B222" s="34" t="s">
         <v>7</v>
@@ -5338,12 +5382,12 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>201</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B223" s="34" t="s">
         <v>7</v>
@@ -5351,12 +5395,12 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B224" s="34" t="s">
         <v>7</v>
@@ -5364,12 +5408,12 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B225" s="34" t="s">
         <v>7</v>
@@ -5377,12 +5421,12 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B226" s="34" t="s">
         <v>7</v>
@@ -5390,12 +5434,12 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B227" s="34" t="s">
         <v>7</v>
@@ -5403,325 +5447,213 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B228" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="12"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D230" s="39"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D231" s="39"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D232" s="39"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D233" s="39"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A235" s="40" t="s">
+        <v>710</v>
+      </c>
+      <c r="B235" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" s="40"/>
+      <c r="D235" s="40"/>
+      <c r="E235" s="40" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D237" s="39"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D238" s="39"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D239" s="39"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D240" s="39"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A242" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="B242" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D244" s="39"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D245" s="39"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D246" s="39"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D247" s="39"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A249" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="B249" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="40"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="40" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D250" s="39"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="7" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="36" t="s">
+      <c r="B255" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C255" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D255" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E233" s="7" t="s">
+      <c r="E255" s="7" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B234" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
-      <c r="E234" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B235" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
-      <c r="E235" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B236" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
-      <c r="E236" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="B237" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
-      <c r="E237" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B238" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
-      <c r="E238" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B239" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B240" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
-      <c r="E240" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B241" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
-      <c r="E241" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B242" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
-      <c r="E242" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B243" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B244" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
-      <c r="E244" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A245" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B245" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
-      <c r="E245" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B246" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
-      <c r="E246" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B247" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A248" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B248" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
-      <c r="E248" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A249" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B249" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
-      <c r="E249" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A250" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B250" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
-      <c r="E250" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B251" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
-      <c r="E251" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B252" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
-      <c r="E252" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A253" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B253" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
-      <c r="E253" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A254" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B254" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A255" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B255" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="B256" s="34" t="s">
         <v>18</v>
@@ -5729,12 +5661,12 @@
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B257" s="34" t="s">
         <v>18</v>
@@ -5742,12 +5674,12 @@
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="B258" s="34" t="s">
         <v>18</v>
@@ -5755,12 +5687,12 @@
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="B259" s="34" t="s">
         <v>18</v>
@@ -5768,12 +5700,12 @@
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="B260" s="34" t="s">
         <v>18</v>
@@ -5781,12 +5713,12 @@
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="B261" s="34" t="s">
         <v>18</v>
@@ -5794,329 +5726,329 @@
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B265" s="42"/>
-      <c r="C265" s="42"/>
-      <c r="D265" s="42"/>
-      <c r="E265" s="42"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B267" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A268" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B268" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C268" s="24"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B262" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B263" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B264" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B265" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B266" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B267" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B268" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>626</v>
+        <v>239</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A269" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B269" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C269" s="24"/>
+      <c r="A269" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B269" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A270" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="B270" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C270" s="24"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B270" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A271" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C271" s="24"/>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B271" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A272" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B272" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C272" s="24"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B272" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>277</v>
+        <v>560</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C273" s="24"/>
+        <v>245</v>
+      </c>
+      <c r="B273" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B274" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C274" s="24"/>
+        <v>247</v>
+      </c>
+      <c r="B274" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B275" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C275" s="24"/>
+        <v>249</v>
+      </c>
+      <c r="B275" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B276" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C276" s="24"/>
+        <v>251</v>
+      </c>
+      <c r="B276" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B277" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C277" s="24"/>
+        <v>253</v>
+      </c>
+      <c r="B277" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B278" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C278" s="24"/>
+        <v>255</v>
+      </c>
+      <c r="B278" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B279" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C279" s="24"/>
+        <v>257</v>
+      </c>
+      <c r="B279" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B280" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C280" s="24"/>
+        <v>259</v>
+      </c>
+      <c r="B280" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B281" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C281" s="24"/>
+        <v>261</v>
+      </c>
+      <c r="B281" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B282" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C282" s="24"/>
+        <v>263</v>
+      </c>
+      <c r="B282" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B283" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C283" s="24"/>
+        <v>265</v>
+      </c>
+      <c r="B283" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A284" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B284" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C284" s="24"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A285" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B285" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C285" s="24"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A286" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B286" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C286" s="24"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B287" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C287" s="24"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B288" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C288" s="24"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B289" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C289" s="24"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>309</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B287" s="44"/>
+      <c r="C287" s="44"/>
+      <c r="D287" s="44"/>
+      <c r="E287" s="44"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A290" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="B290" s="37" t="s">
         <v>7</v>
@@ -6124,12 +6056,12 @@
       <c r="C290" s="24"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4" t="s">
-        <v>310</v>
+        <v>626</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>311</v>
+      <c r="A291" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="B291" s="37" t="s">
         <v>7</v>
@@ -6137,12 +6069,12 @@
       <c r="C291" s="24"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="108" x14ac:dyDescent="0.25">
-      <c r="A292" s="4" t="s">
-        <v>313</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A292" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="B292" s="37" t="s">
         <v>7</v>
@@ -6150,12 +6082,12 @@
       <c r="C292" s="24"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A293" s="4" t="s">
-        <v>315</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A293" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="B293" s="37" t="s">
         <v>7</v>
@@ -6163,12 +6095,12 @@
       <c r="C293" s="24"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A294" s="4" t="s">
-        <v>317</v>
+      <c r="A294" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="B294" s="37" t="s">
         <v>7</v>
@@ -6176,12 +6108,12 @@
       <c r="C294" s="24"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="B295" s="37" t="s">
         <v>7</v>
@@ -6189,12 +6121,12 @@
       <c r="C295" s="24"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B296" s="37" t="s">
         <v>7</v>
@@ -6202,12 +6134,12 @@
       <c r="C296" s="24"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="B297" s="37" t="s">
         <v>7</v>
@@ -6215,12 +6147,12 @@
       <c r="C297" s="24"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B298" s="37" t="s">
         <v>7</v>
@@ -6228,12 +6160,12 @@
       <c r="C298" s="24"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="B299" s="37" t="s">
         <v>7</v>
@@ -6241,12 +6173,12 @@
       <c r="C299" s="24"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="B300" s="37" t="s">
         <v>7</v>
@@ -6254,12 +6186,12 @@
       <c r="C300" s="24"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="B301" s="37" t="s">
         <v>7</v>
@@ -6267,12 +6199,12 @@
       <c r="C301" s="24"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="B302" s="37" t="s">
         <v>7</v>
@@ -6280,370 +6212,425 @@
       <c r="C302" s="24"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B303" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B303" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C303" s="24"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B304" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B304" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C304" s="24"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
-        <v>338</v>
+        <v>627</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B305" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B305" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C305" s="24"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B306" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B306" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C306" s="24"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B307" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B307" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C307" s="24"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B308" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B308" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C308" s="24"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
-        <v>346</v>
+        <v>561</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B309" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B309" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="24"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D315" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E315" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B316" s="40"/>
-      <c r="C316" s="40"/>
-      <c r="D316" s="40"/>
-      <c r="E316" s="41"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="24"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="24"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B312" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="24"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B313" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="24"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="24"/>
+      <c r="D314" s="4"/>
+      <c r="E314" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="24"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="24"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B317" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C317" s="4"/>
+        <v>319</v>
+      </c>
+      <c r="B317" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="24"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B318" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C318" s="4"/>
+        <v>321</v>
+      </c>
+      <c r="B318" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="24"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B319" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C319" s="4"/>
+        <v>323</v>
+      </c>
+      <c r="B319" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="24"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B320" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C320" s="4"/>
+        <v>325</v>
+      </c>
+      <c r="B320" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="24"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B321" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C321" s="4"/>
+        <v>327</v>
+      </c>
+      <c r="B321" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="24"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B322" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C322" s="4"/>
+        <v>329</v>
+      </c>
+      <c r="B322" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="24"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="39" t="s">
-        <v>364</v>
-      </c>
-      <c r="B323" s="40"/>
-      <c r="C323" s="40"/>
-      <c r="D323" s="40"/>
-      <c r="E323" s="41"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B323" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="24"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B324" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C324" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="B324" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="24"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B330" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D330" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E330" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B325" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="24"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B326" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="24"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B327" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="24"/>
+      <c r="D327" s="4"/>
+      <c r="E327" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B328" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="24"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B329" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="24"/>
+      <c r="D329" s="4"/>
+      <c r="E329" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B330" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="24"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B331" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C331" s="4"/>
+      <c r="C331" s="24"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A332" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B332" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A333" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B333" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B334" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A335" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B335" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B336" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4" t="s">
-        <v>568</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B337" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B338" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4" t="s">
-        <v>570</v>
-      </c>
+      <c r="A337" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E337" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="B338" s="42"/>
+      <c r="C338" s="42"/>
+      <c r="D338" s="42"/>
+      <c r="E338" s="43"/>
     </row>
     <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="B339" s="34" t="s">
         <v>7</v>
@@ -6651,12 +6638,12 @@
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
-        <v>571</v>
+        <v>353</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B340" s="34" t="s">
         <v>7</v>
@@ -6664,12 +6651,12 @@
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B341" s="34" t="s">
         <v>7</v>
@@ -6677,12 +6664,12 @@
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
-        <v>573</v>
+        <v>357</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="B342" s="34" t="s">
         <v>7</v>
@@ -6690,426 +6677,517 @@
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>382</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B343" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="4"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B344" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C344" s="4"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="B345" s="42"/>
+      <c r="C345" s="42"/>
+      <c r="D345" s="42"/>
+      <c r="E345" s="43"/>
+    </row>
+    <row r="346" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B346" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
+      <c r="A348" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B348" s="36" t="s">
+      <c r="B352" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C348" s="7" t="s">
+      <c r="C352" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D348" s="7" t="s">
+      <c r="D352" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E348" s="7" t="s">
+      <c r="E352" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A349" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B349" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B355" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D355" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E355" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B353" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="4"/>
+      <c r="D353" s="4"/>
+      <c r="E353" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B354" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B355" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="4"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B362" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D362" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B357" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="4"/>
+      <c r="D357" s="4"/>
+      <c r="E357" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B358" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="4"/>
+      <c r="D358" s="4"/>
+      <c r="E358" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B359" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="4"/>
+      <c r="D359" s="4"/>
+      <c r="E359" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B360" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="4"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B361" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="4"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B362" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="4"/>
+      <c r="D362" s="4"/>
+      <c r="E362" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B364" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="4"/>
+      <c r="D364" s="4"/>
+      <c r="E364" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B370" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D370" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E370" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B371" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B377" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D377" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E377" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B384" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D384" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E384" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B385" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="7" t="s">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B369" s="36" t="s">
+      <c r="B391" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C369" s="7" t="s">
+      <c r="C391" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D369" s="7" t="s">
+      <c r="D391" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E369" s="7" t="s">
+      <c r="E391" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A370" s="4" t="s">
+    <row r="392" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B370" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4" t="s">
+      <c r="B392" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C392" s="4"/>
+      <c r="D392" s="4"/>
+      <c r="E392" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="5"/>
-      <c r="B371" s="34"/>
-      <c r="C371" s="5"/>
-      <c r="D371" s="4"/>
-      <c r="E371" s="5"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="5"/>
+      <c r="B393" s="34"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="5"/>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="7" t="s">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B376" s="36" t="s">
+      <c r="B398" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C376" s="7" t="s">
+      <c r="C398" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D376" s="7" t="s">
+      <c r="D398" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E376" s="7" t="s">
+      <c r="E398" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A377" s="4" t="s">
+    <row r="399" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B377" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4" t="s">
+      <c r="B399" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399" s="4"/>
+      <c r="D399" s="4"/>
+      <c r="E399" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="7" t="s">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B383" s="36" t="s">
+      <c r="B405" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C405" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D383" s="7" t="s">
+      <c r="D405" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E383" s="7" t="s">
+      <c r="E405" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A384" s="4" t="s">
+    <row r="406" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B384" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4" t="s">
+      <c r="B406" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="4"/>
+      <c r="D406" s="4"/>
+      <c r="E406" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="2" t="s">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="7" t="s">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B390" s="36" t="s">
+      <c r="B412" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C390" s="7" t="s">
+      <c r="C412" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D390" s="7" t="s">
+      <c r="D412" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E390" s="7" t="s">
+      <c r="E412" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
+    <row r="413" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="B391" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B397" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C397" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D397" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E397" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A398" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B398" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B404" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D404" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E404" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A405" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B405" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="5"/>
-      <c r="B406" s="34"/>
-      <c r="C406" s="5"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="5"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B411" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D411" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E411" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A412" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B412" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="B413" s="34" t="s">
         <v>18</v>
@@ -7117,17 +7195,17 @@
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -7147,9 +7225,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B420" s="34" t="s">
         <v>18</v>
@@ -7157,130 +7235,86 @@
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A421" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B421" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A422" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B422" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A423" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B423" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C426" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E426" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B427" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C427" s="4"/>
+      <c r="D427" s="4"/>
+      <c r="E427" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="5"/>
+      <c r="B428" s="34"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="5"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="7" t="s">
+      <c r="A429" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B429" s="36" t="s">
+      <c r="B433" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C429" s="7" t="s">
+      <c r="C433" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D429" s="7" t="s">
+      <c r="D433" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E429" s="7" t="s">
+      <c r="E433" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A430" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B430" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B431" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A432" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B432" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A433" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B433" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B434" s="34" t="s">
         <v>18</v>
@@ -7288,12 +7322,12 @@
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
-        <v>223</v>
+        <v>584</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B435" s="34" t="s">
         <v>18</v>
@@ -7301,390 +7335,288 @@
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B441" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D441" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E441" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B442" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B443" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B444" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C444" s="4"/>
+      <c r="D444" s="4"/>
+      <c r="E444" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B445" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C445" s="4"/>
+      <c r="D445" s="4"/>
+      <c r="E445" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B451" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D451" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="E451" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B452" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B453" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A454" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B454" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C454" s="4"/>
+      <c r="D454" s="4"/>
+      <c r="E454" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B455" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C455" s="4"/>
+      <c r="D455" s="4"/>
+      <c r="E455" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B456" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" s="4"/>
+      <c r="D456" s="4"/>
+      <c r="E456" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A457" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B457" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C457" s="4"/>
+      <c r="D457" s="4"/>
+      <c r="E457" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A436" s="4" t="s">
+    <row r="458" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A458" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B436" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4" t="s">
+      <c r="B458" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C458" s="4"/>
+      <c r="D458" s="4"/>
+      <c r="E458" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A437" s="4" t="s">
+    <row r="459" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A459" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B437" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="4" t="s">
+      <c r="B459" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C459" s="4"/>
+      <c r="D459" s="4"/>
+      <c r="E459" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A438" s="4" t="s">
+    <row r="460" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B438" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4" t="s">
+      <c r="B460" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C460" s="4"/>
+      <c r="D460" s="4"/>
+      <c r="E460" s="4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A439" s="4" t="s">
+    <row r="461" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A461" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B439" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4" t="s">
+      <c r="B461" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C461" s="4"/>
+      <c r="D461" s="4"/>
+      <c r="E461" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="7" t="s">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B445" s="36" t="s">
+      <c r="B467" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C467" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D445" s="7" t="s">
+      <c r="D467" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="E445" s="7" t="s">
+      <c r="E467" s="7" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A446" s="25" t="s">
+    <row r="468" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A468" s="25" t="s">
         <v>636</v>
-      </c>
-      <c r="B446" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C446" s="25"/>
-      <c r="D446" s="25"/>
-      <c r="E446" s="28" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="25" t="s">
-        <v>639</v>
-      </c>
-      <c r="B447" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C447" s="25"/>
-      <c r="D447" s="25"/>
-      <c r="E447" s="38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A448" s="25" t="s">
-        <v>641</v>
-      </c>
-      <c r="B448" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C448" s="25"/>
-      <c r="D448" s="25"/>
-      <c r="E448" s="38" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="25" t="s">
-        <v>643</v>
-      </c>
-      <c r="B449" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C449" s="25"/>
-      <c r="D449" s="25"/>
-      <c r="E449" s="38" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="B450" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C450" s="25"/>
-      <c r="D450" s="25"/>
-      <c r="E450" s="38" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="B451" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C451" s="25"/>
-      <c r="D451" s="25"/>
-      <c r="E451" s="38" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452" s="25" t="s">
-        <v>649</v>
-      </c>
-      <c r="B452" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C452" s="25"/>
-      <c r="D452" s="25"/>
-      <c r="E452" s="38" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="B453" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C453" s="25"/>
-      <c r="D453" s="25"/>
-      <c r="E453" s="38" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454" s="25" t="s">
-        <v>653</v>
-      </c>
-      <c r="B454" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C454" s="25"/>
-      <c r="D454" s="25"/>
-      <c r="E454" s="38" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A455" s="25" t="s">
-        <v>655</v>
-      </c>
-      <c r="B455" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C455" s="25"/>
-      <c r="D455" s="25"/>
-      <c r="E455" s="38" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A456" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="B456" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C456" s="25"/>
-      <c r="D456" s="25"/>
-      <c r="E456" s="38" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A457" s="25" t="s">
-        <v>659</v>
-      </c>
-      <c r="B457" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C457" s="25"/>
-      <c r="D457" s="25"/>
-      <c r="E457" s="38" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458" s="25" t="s">
-        <v>661</v>
-      </c>
-      <c r="B458" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C458" s="25"/>
-      <c r="D458" s="25"/>
-      <c r="E458" s="38" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459" s="25" t="s">
-        <v>663</v>
-      </c>
-      <c r="B459" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C459" s="25"/>
-      <c r="D459" s="25"/>
-      <c r="E459" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A460" s="25" t="s">
-        <v>665</v>
-      </c>
-      <c r="B460" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C460" s="25"/>
-      <c r="D460" s="25"/>
-      <c r="E460" s="38" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461" s="25" t="s">
-        <v>667</v>
-      </c>
-      <c r="B461" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C461" s="25"/>
-      <c r="D461" s="25"/>
-      <c r="E461" s="38" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A462" s="25" t="s">
-        <v>669</v>
-      </c>
-      <c r="B462" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C462" s="25"/>
-      <c r="D462" s="25"/>
-      <c r="E462" s="38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="25" t="s">
-        <v>671</v>
-      </c>
-      <c r="B463" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C463" s="25"/>
-      <c r="D463" s="25"/>
-      <c r="E463" s="38" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464" s="25" t="s">
-        <v>673</v>
-      </c>
-      <c r="B464" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C464" s="25"/>
-      <c r="D464" s="25"/>
-      <c r="E464" s="38" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="B465" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C465" s="25"/>
-      <c r="D465" s="25"/>
-      <c r="E465" s="38" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466" s="25" t="s">
-        <v>677</v>
-      </c>
-      <c r="B466" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C466" s="25"/>
-      <c r="D466" s="25"/>
-      <c r="E466" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A467" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="B467" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="C467" s="25"/>
-      <c r="D467" s="25"/>
-      <c r="E467" s="38" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468" s="25" t="s">
-        <v>681</v>
       </c>
       <c r="B468" s="29" t="s">
         <v>637</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
-      <c r="E468" s="38" t="s">
-        <v>682</v>
+      <c r="E468" s="28" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="25" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="B469" s="29" t="s">
         <v>637</v>
@@ -7692,12 +7624,12 @@
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
       <c r="E469" s="38" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A470" s="25" t="s">
-        <v>685</v>
+        <v>641</v>
       </c>
       <c r="B470" s="29" t="s">
         <v>637</v>
@@ -7705,12 +7637,12 @@
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
       <c r="E470" s="38" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="25" t="s">
-        <v>687</v>
+        <v>643</v>
       </c>
       <c r="B471" s="29" t="s">
         <v>637</v>
@@ -7718,12 +7650,12 @@
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
       <c r="E471" s="38" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="25" t="s">
-        <v>689</v>
+        <v>645</v>
       </c>
       <c r="B472" s="29" t="s">
         <v>637</v>
@@ -7731,12 +7663,12 @@
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
       <c r="E472" s="38" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="25" t="s">
-        <v>691</v>
+        <v>646</v>
       </c>
       <c r="B473" s="29" t="s">
         <v>637</v>
@@ -7744,12 +7676,12 @@
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
       <c r="E473" s="38" t="s">
-        <v>692</v>
+        <v>647</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="25" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="B474" s="29" t="s">
         <v>637</v>
@@ -7757,12 +7689,12 @@
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="38" t="s">
-        <v>694</v>
+        <v>650</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="B475" s="29" t="s">
         <v>637</v>
@@ -7770,12 +7702,12 @@
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="38" t="s">
-        <v>696</v>
+        <v>652</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="25" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
       <c r="B476" s="29" t="s">
         <v>637</v>
@@ -7783,12 +7715,12 @@
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
       <c r="E476" s="38" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A477" s="25" t="s">
-        <v>699</v>
+        <v>655</v>
       </c>
       <c r="B477" s="29" t="s">
         <v>637</v>
@@ -7796,12 +7728,12 @@
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="38" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="B478" s="29" t="s">
         <v>637</v>
@@ -7809,19 +7741,305 @@
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="38" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A479" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="B479" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C479" s="25"/>
+      <c r="D479" s="25"/>
+      <c r="E479" s="38" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="25" t="s">
+        <v>661</v>
+      </c>
+      <c r="B480" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C480" s="25"/>
+      <c r="D480" s="25"/>
+      <c r="E480" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="25" t="s">
+        <v>663</v>
+      </c>
+      <c r="B481" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C481" s="25"/>
+      <c r="D481" s="25"/>
+      <c r="E481" s="38" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A482" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="B482" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C482" s="25"/>
+      <c r="D482" s="25"/>
+      <c r="E482" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B483" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C483" s="25"/>
+      <c r="D483" s="25"/>
+      <c r="E483" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A484" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B484" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C484" s="25"/>
+      <c r="D484" s="25"/>
+      <c r="E484" s="38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B485" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C485" s="25"/>
+      <c r="D485" s="25"/>
+      <c r="E485" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B486" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C486" s="25"/>
+      <c r="D486" s="25"/>
+      <c r="E486" s="38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="B487" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C487" s="25"/>
+      <c r="D487" s="25"/>
+      <c r="E487" s="38" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="B488" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C488" s="25"/>
+      <c r="D488" s="25"/>
+      <c r="E488" s="38" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A489" s="25" t="s">
+        <v>679</v>
+      </c>
+      <c r="B489" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C489" s="25"/>
+      <c r="D489" s="25"/>
+      <c r="E489" s="38" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B490" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C490" s="25"/>
+      <c r="D490" s="25"/>
+      <c r="E490" s="38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="B491" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C491" s="25"/>
+      <c r="D491" s="25"/>
+      <c r="E491" s="38" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="B492" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C492" s="25"/>
+      <c r="D492" s="25"/>
+      <c r="E492" s="38" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A493" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B493" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C493" s="25"/>
+      <c r="D493" s="25"/>
+      <c r="E493" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B494" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C494" s="25"/>
+      <c r="D494" s="25"/>
+      <c r="E494" s="38" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A495" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="B495" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C495" s="25"/>
+      <c r="D495" s="25"/>
+      <c r="E495" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="25" t="s">
+        <v>693</v>
+      </c>
+      <c r="B496" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C496" s="25"/>
+      <c r="D496" s="25"/>
+      <c r="E496" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="B497" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C497" s="25"/>
+      <c r="D497" s="25"/>
+      <c r="E497" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="B498" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C498" s="25"/>
+      <c r="D498" s="25"/>
+      <c r="E498" s="38" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="B499" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C499" s="25"/>
+      <c r="D499" s="25"/>
+      <c r="E499" s="38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="B500" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C500" s="25"/>
+      <c r="D500" s="25"/>
+      <c r="E500" s="38" t="s">
         <v>702</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A316:E316"/>
-    <mergeCell ref="A323:E323"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A345:E345"/>
+    <mergeCell ref="A287:E287"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A215:E215"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>

--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -9,8 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="714">
   <si>
     <t>epub30-test-0100.epub</t>
   </si>
@@ -130,27 +129,6 @@
     <t>mathml-021</t>
   </si>
   <si>
-    <t>mathml-022</t>
-  </si>
-  <si>
-    <t>mathml-023</t>
-  </si>
-  <si>
-    <t>mathml-024</t>
-  </si>
-  <si>
-    <t>mathml-025</t>
-  </si>
-  <si>
-    <t>mathml-026</t>
-  </si>
-  <si>
-    <t>Tests whether right-to-left and Arabic alphabets are supported.</t>
-  </si>
-  <si>
-    <t>mathml-027</t>
-  </si>
-  <si>
     <t>mathml-028</t>
   </si>
   <si>
@@ -1373,21 +1351,6 @@
   </si>
   <si>
     <t>Tests whether basic CSS styling of MathML is supported on the mo element.</t>
-  </si>
-  <si>
-    <t>Tests whether basic CSS styling of MathML is supported on the mi element.</t>
-  </si>
-  <si>
-    <t>Tests whether basic CSS styling of MathML is supported on the mn element.</t>
-  </si>
-  <si>
-    <t>Tests whether horizontal stretch, mover, munder, mspace elements are supported.</t>
-  </si>
-  <si>
-    <t>Tests whether mtable with colspan and mspace attributes (colum and row spanning) are supported; uses Hebrew and Script alphabets.</t>
-  </si>
-  <si>
-    <t>Tests whether mlongdiv elements (from elementary math) are supported.</t>
   </si>
   <si>
     <t>Tests whether mmultiscript elements as well as Greek and Gothic alphabets are supported.</t>
@@ -2180,6 +2143,39 @@
   </si>
   <si>
     <t>flow-020</t>
+  </si>
+  <si>
+    <t>mathml-030</t>
+  </si>
+  <si>
+    <t>Tests basic layout of surds.</t>
+  </si>
+  <si>
+    <t>mathml-040</t>
+  </si>
+  <si>
+    <t>Tests basic vertical stretch of parentheses.</t>
+  </si>
+  <si>
+    <t>mathml-060</t>
+  </si>
+  <si>
+    <t>Tests whether mtable with borders and basic alignments attributes are supported.</t>
+  </si>
+  <si>
+    <t>mathml-061</t>
+  </si>
+  <si>
+    <t>mathml-080</t>
+  </si>
+  <si>
+    <t>Tests whether mlongdiv elements are supported.</t>
+  </si>
+  <si>
+    <t>mathml-090</t>
+  </si>
+  <si>
+    <t>Tests whether mmultiscript and munderover elements as well as Greek and Gothic alphabets are supported.</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2368,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2445,6 +2441,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2807,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2817,17 +2816,17 @@
     <col min="2" max="2" width="22.125" style="35" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="58.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="62.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="66.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D2" s="16"/>
     </row>
@@ -2840,31 +2839,31 @@
       <c r="A5" s="9"/>
       <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="31"/>
       <c r="C7" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="5"/>
@@ -2873,18 +2872,18 @@
       <c r="A8" s="6"/>
       <c r="B8" s="31"/>
       <c r="C8" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="21" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="5"/>
@@ -2900,40 +2899,40 @@
       <c r="A11" s="6"/>
       <c r="B11" s="31"/>
       <c r="C11" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="31"/>
       <c r="C12" s="5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="5" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="31"/>
       <c r="C14" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
@@ -2942,7 +2941,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="5"/>
@@ -2958,29 +2957,29 @@
       <c r="A17" s="6"/>
       <c r="B17" s="31"/>
       <c r="C17" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="31"/>
       <c r="C18" s="5" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="31"/>
       <c r="C19" s="5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
@@ -2989,22 +2988,22 @@
       <c r="A20" s="6"/>
       <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="23" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="31"/>
       <c r="C21" s="5" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,7 +3022,7 @@
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="B24" s="32"/>
       <c r="D24" s="10"/>
@@ -3034,19 +3033,19 @@
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B27" s="34">
         <f>SUM(C47:C103)</f>
@@ -3060,7 +3059,7 @@
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B28" s="34">
         <f>SUM(C111:C153)</f>
@@ -3074,7 +3073,7 @@
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="B29" s="34">
         <f>SUM(C161:C208)</f>
@@ -3088,7 +3087,7 @@
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="B30" s="34">
         <f>SUM(C216:C228)</f>
@@ -3102,7 +3101,7 @@
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B31" s="34">
         <f>SUM(C235,C242,C249)</f>
@@ -3116,7 +3115,7 @@
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B32" s="34">
         <f>SUM(C256:C283)</f>
@@ -3130,7 +3129,7 @@
     </row>
     <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="B33" s="34">
         <f>SUM(C290:C331)</f>
@@ -3144,7 +3143,7 @@
     </row>
     <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B34" s="34">
         <f>SUM(C339:C344,C346)</f>
@@ -3158,7 +3157,7 @@
     </row>
     <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="B35" s="34">
         <f>SUM(C353:C364)</f>
@@ -3172,7 +3171,7 @@
     </row>
     <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B36" s="34">
         <f>SUM(C371,C378,C385,C392,C399,C406,C413,C420,C427,C434,C435,C442,C443,C444,C445)</f>
@@ -3186,7 +3185,7 @@
     </row>
     <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="B37" s="34">
         <f>SUM(C452:C461)</f>
@@ -3200,7 +3199,7 @@
     </row>
     <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B38" s="34">
         <f>SUM(C468:C500)</f>
@@ -3214,7 +3213,7 @@
     </row>
     <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="B39" s="34">
         <f>SUM(B27:B38)</f>
@@ -3251,20 +3250,20 @@
         <v>4</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
@@ -3276,7 +3275,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3328,7 +3327,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="54" x14ac:dyDescent="0.25">
@@ -3341,7 +3340,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3354,7 +3353,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="54" x14ac:dyDescent="0.25">
@@ -3367,7 +3366,7 @@
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.25">
@@ -3380,7 +3379,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3393,7 +3392,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3406,7 +3405,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3419,7 +3418,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3432,7 +3431,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3445,7 +3444,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3458,7 +3457,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3471,7 +3470,7 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="54" x14ac:dyDescent="0.25">
@@ -3484,7 +3483,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.25">
@@ -3497,7 +3496,7 @@
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3510,7 +3509,7 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3549,7 +3548,7 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.25">
@@ -3562,90 +3561,90 @@
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>36</v>
+        <v>703</v>
       </c>
       <c r="B70" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>37</v>
+      <c r="E70" s="41" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>705</v>
       </c>
       <c r="B71" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
-        <v>452</v>
+      <c r="E71" s="41" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>38</v>
+      <c r="A72" s="28" t="s">
+        <v>707</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>39</v>
+      <c r="E72" s="41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>709</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>40</v>
+      <c r="E73" s="41" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>710</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>42</v>
+      <c r="E74" s="41" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>712</v>
       </c>
       <c r="B75" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
-        <v>455</v>
+      <c r="E75" s="41" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B76" s="34" t="s">
         <v>7</v>
@@ -3653,12 +3652,12 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B77" s="34" t="s">
         <v>7</v>
@@ -3666,12 +3665,12 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>7</v>
@@ -3679,12 +3678,12 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B79" s="34" t="s">
         <v>7</v>
@@ -3692,12 +3691,12 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>7</v>
@@ -3705,12 +3704,12 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>7</v>
@@ -3718,12 +3717,12 @@
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B82" s="34" t="s">
         <v>7</v>
@@ -3731,12 +3730,12 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B83" s="34" t="s">
         <v>7</v>
@@ -3744,12 +3743,12 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>7</v>
@@ -3757,12 +3756,12 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B85" s="34" t="s">
         <v>7</v>
@@ -3770,12 +3769,12 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>7</v>
@@ -3783,12 +3782,12 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B87" s="34" t="s">
         <v>7</v>
@@ -3796,12 +3795,12 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>7</v>
@@ -3809,12 +3808,12 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>7</v>
@@ -3822,12 +3821,12 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>7</v>
@@ -3835,12 +3834,12 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>7</v>
@@ -3848,12 +3847,12 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>7</v>
@@ -3861,12 +3860,12 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B93" s="34" t="s">
         <v>7</v>
@@ -3874,12 +3873,12 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>7</v>
@@ -3887,12 +3886,12 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B95" s="34" t="s">
         <v>18</v>
@@ -3900,12 +3899,12 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>7</v>
@@ -3913,12 +3912,12 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>7</v>
@@ -3926,12 +3925,12 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>7</v>
@@ -3939,12 +3938,12 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B99" s="34" t="s">
         <v>7</v>
@@ -3952,12 +3951,12 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B100" s="34" t="s">
         <v>7</v>
@@ -3965,12 +3964,12 @@
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B101" s="34" t="s">
         <v>18</v>
@@ -3978,21 +3977,21 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
+      <c r="A102" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B103" s="34" t="s">
         <v>7</v>
@@ -4000,17 +3999,17 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4024,24 +4023,24 @@
         <v>4</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
+      <c r="A110" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
     </row>
     <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B111" s="34" t="s">
         <v>7</v>
@@ -4049,12 +4048,12 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B112" s="34" t="s">
         <v>7</v>
@@ -4062,12 +4061,12 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B113" s="34" t="s">
         <v>7</v>
@@ -4075,12 +4074,12 @@
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B114" s="34" t="s">
         <v>7</v>
@@ -4088,12 +4087,12 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B115" s="34" t="s">
         <v>7</v>
@@ -4101,12 +4100,12 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>7</v>
@@ -4114,12 +4113,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>7</v>
@@ -4127,12 +4126,12 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>7</v>
@@ -4140,12 +4139,12 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>7</v>
@@ -4153,12 +4152,12 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>7</v>
@@ -4166,12 +4165,12 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>7</v>
@@ -4179,12 +4178,12 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>7</v>
@@ -4192,12 +4191,12 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>7</v>
@@ -4205,12 +4204,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>7</v>
@@ -4218,12 +4217,12 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>7</v>
@@ -4231,12 +4230,12 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>7</v>
@@ -4244,12 +4243,12 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B127" s="34" t="s">
         <v>7</v>
@@ -4257,12 +4256,12 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>7</v>
@@ -4270,12 +4269,12 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B129" s="34" t="s">
         <v>7</v>
@@ -4283,12 +4282,12 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>7</v>
@@ -4296,12 +4295,12 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B131" s="34" t="s">
         <v>7</v>
@@ -4309,12 +4308,12 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>7</v>
@@ -4322,12 +4321,12 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B133" s="34" t="s">
         <v>7</v>
@@ -4335,12 +4334,12 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B134" s="34" t="s">
         <v>7</v>
@@ -4348,12 +4347,12 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B135" s="34" t="s">
         <v>7</v>
@@ -4361,12 +4360,12 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B136" s="34" t="s">
         <v>7</v>
@@ -4374,12 +4373,12 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B137" s="34" t="s">
         <v>7</v>
@@ -4387,12 +4386,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B138" s="34" t="s">
         <v>7</v>
@@ -4400,12 +4399,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>7</v>
@@ -4413,12 +4412,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B140" s="34" t="s">
         <v>7</v>
@@ -4426,12 +4425,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>7</v>
@@ -4439,12 +4438,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B142" s="34" t="s">
         <v>7</v>
@@ -4452,12 +4451,12 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B143" s="34" t="s">
         <v>7</v>
@@ -4465,12 +4464,12 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B144" s="34" t="s">
         <v>7</v>
@@ -4478,12 +4477,12 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>7</v>
@@ -4491,12 +4490,12 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B146" s="34" t="s">
         <v>7</v>
@@ -4504,12 +4503,12 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B147" s="34" t="s">
         <v>7</v>
@@ -4517,12 +4516,12 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>7</v>
@@ -4530,12 +4529,12 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B149" s="34" t="s">
         <v>7</v>
@@ -4543,12 +4542,12 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>7</v>
@@ -4556,12 +4555,12 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B151" s="34" t="s">
         <v>7</v>
@@ -4569,12 +4568,12 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B152" s="34" t="s">
         <v>7</v>
@@ -4582,12 +4581,12 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B153" s="34" t="s">
         <v>7</v>
@@ -4595,17 +4594,17 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4619,24 +4618,24 @@
         <v>4</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="45"/>
+      <c r="A160" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
     </row>
     <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B161" s="34" t="s">
         <v>18</v>
@@ -4644,12 +4643,12 @@
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B162" s="34" t="s">
         <v>7</v>
@@ -4657,12 +4656,12 @@
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B163" s="34" t="s">
         <v>7</v>
@@ -4670,12 +4669,12 @@
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B164" s="34" t="s">
         <v>7</v>
@@ -4683,12 +4682,12 @@
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B165" s="34" t="s">
         <v>18</v>
@@ -4696,12 +4695,12 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B166" s="34" t="s">
         <v>18</v>
@@ -4709,12 +4708,12 @@
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B167" s="34" t="s">
         <v>18</v>
@@ -4722,12 +4721,12 @@
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B168" s="34" t="s">
         <v>18</v>
@@ -4735,12 +4734,12 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B169" s="34" t="s">
         <v>18</v>
@@ -4748,12 +4747,12 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B170" s="34" t="s">
         <v>18</v>
@@ -4761,12 +4760,12 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B171" s="34" t="s">
         <v>18</v>
@@ -4774,12 +4773,12 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B172" s="34" t="s">
         <v>18</v>
@@ -4787,12 +4786,12 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>18</v>
@@ -4800,12 +4799,12 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B174" s="34" t="s">
         <v>18</v>
@@ -4813,12 +4812,12 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B175" s="34" t="s">
         <v>18</v>
@@ -4826,12 +4825,12 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B176" s="34" t="s">
         <v>18</v>
@@ -4839,12 +4838,12 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B177" s="34" t="s">
         <v>18</v>
@@ -4852,12 +4851,12 @@
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B178" s="34" t="s">
         <v>18</v>
@@ -4865,12 +4864,12 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>18</v>
@@ -4878,12 +4877,12 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B180" s="34" t="s">
         <v>18</v>
@@ -4891,12 +4890,12 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B181" s="34" t="s">
         <v>18</v>
@@ -4904,12 +4903,12 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B182" s="34" t="s">
         <v>18</v>
@@ -4917,12 +4916,12 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B183" s="34" t="s">
         <v>7</v>
@@ -4930,12 +4929,12 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B184" s="34" t="s">
         <v>18</v>
@@ -4943,12 +4942,12 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B185" s="34" t="s">
         <v>18</v>
@@ -4956,12 +4955,12 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B186" s="34" t="s">
         <v>18</v>
@@ -4969,12 +4968,12 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B187" s="34" t="s">
         <v>18</v>
@@ -4982,12 +4981,12 @@
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B188" s="34" t="s">
         <v>18</v>
@@ -4995,12 +4994,12 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B189" s="34" t="s">
         <v>18</v>
@@ -5008,12 +5007,12 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B190" s="34" t="s">
         <v>18</v>
@@ -5021,12 +5020,12 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B191" s="34" t="s">
         <v>18</v>
@@ -5034,12 +5033,12 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>18</v>
@@ -5047,12 +5046,12 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>18</v>
@@ -5060,12 +5059,12 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B194" s="34" t="s">
         <v>18</v>
@@ -5073,12 +5072,12 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B195" s="34" t="s">
         <v>18</v>
@@ -5086,12 +5085,12 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>18</v>
@@ -5099,12 +5098,12 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B197" s="34" t="s">
         <v>18</v>
@@ -5112,12 +5111,12 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B198" s="34" t="s">
         <v>18</v>
@@ -5125,12 +5124,12 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B199" s="34" t="s">
         <v>18</v>
@@ -5138,12 +5137,12 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B200" s="34" t="s">
         <v>18</v>
@@ -5151,12 +5150,12 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>18</v>
@@ -5164,12 +5163,12 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>18</v>
@@ -5177,12 +5176,12 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>18</v>
@@ -5190,12 +5189,12 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B204" s="34" t="s">
         <v>18</v>
@@ -5203,12 +5202,12 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B205" s="34" t="s">
         <v>18</v>
@@ -5216,12 +5215,12 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B206" s="34" t="s">
         <v>18</v>
@@ -5229,12 +5228,12 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>18</v>
@@ -5242,12 +5241,12 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B208" s="34" t="s">
         <v>18</v>
@@ -5255,17 +5254,17 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5279,24 +5278,24 @@
         <v>4</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="B215" s="45"/>
-      <c r="C215" s="45"/>
-      <c r="D215" s="45"/>
-      <c r="E215" s="45"/>
-    </row>
-    <row r="216" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A215" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B215" s="46"/>
+      <c r="C215" s="46"/>
+      <c r="D215" s="46"/>
+      <c r="E215" s="46"/>
+    </row>
+    <row r="216" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B216" s="34" t="s">
         <v>7</v>
@@ -5304,12 +5303,12 @@
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B217" s="34" t="s">
         <v>7</v>
@@ -5317,12 +5316,12 @@
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B218" s="34" t="s">
         <v>7</v>
@@ -5330,12 +5329,12 @@
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B219" s="34" t="s">
         <v>7</v>
@@ -5343,12 +5342,12 @@
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B220" s="34" t="s">
         <v>7</v>
@@ -5356,12 +5355,12 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B221" s="34" t="s">
         <v>7</v>
@@ -5369,12 +5368,12 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B222" s="34" t="s">
         <v>7</v>
@@ -5382,12 +5381,12 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B223" s="34" t="s">
         <v>7</v>
@@ -5395,12 +5394,12 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B224" s="34" t="s">
         <v>7</v>
@@ -5408,12 +5407,12 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B225" s="34" t="s">
         <v>7</v>
@@ -5421,12 +5420,12 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B226" s="34" t="s">
         <v>7</v>
@@ -5434,12 +5433,12 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B227" s="34" t="s">
         <v>7</v>
@@ -5447,12 +5446,12 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B228" s="34" t="s">
         <v>7</v>
@@ -5460,7 +5459,7 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5472,7 +5471,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="D230" s="39"/>
     </row>
@@ -5481,7 +5480,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="D232" s="39"/>
     </row>
@@ -5499,15 +5498,15 @@
         <v>4</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A235" s="40" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="B235" s="34" t="s">
         <v>18</v>
@@ -5515,7 +5514,7 @@
       <c r="C235" s="40"/>
       <c r="D235" s="40"/>
       <c r="E235" s="40" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,7 +5526,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D237" s="39"/>
     </row>
@@ -5536,7 +5535,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D239" s="39"/>
     </row>
@@ -5554,15 +5553,15 @@
         <v>4</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A242" s="40" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="B242" s="34" t="s">
         <v>18</v>
@@ -5570,12 +5569,12 @@
       <c r="C242" s="40"/>
       <c r="D242" s="40"/>
       <c r="E242" s="40" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D244" s="39"/>
     </row>
@@ -5584,7 +5583,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D246" s="39"/>
     </row>
@@ -5602,15 +5601,15 @@
         <v>4</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A249" s="40" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B249" s="34" t="s">
         <v>18</v>
@@ -5618,7 +5617,7 @@
       <c r="C249" s="40"/>
       <c r="D249" s="40"/>
       <c r="E249" s="40" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -5626,12 +5625,12 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,15 +5644,15 @@
         <v>4</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B256" s="34" t="s">
         <v>18</v>
@@ -5661,12 +5660,12 @@
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B257" s="34" t="s">
         <v>18</v>
@@ -5674,12 +5673,12 @@
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B258" s="34" t="s">
         <v>18</v>
@@ -5687,12 +5686,12 @@
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B259" s="34" t="s">
         <v>18</v>
@@ -5700,12 +5699,12 @@
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B260" s="34" t="s">
         <v>18</v>
@@ -5713,12 +5712,12 @@
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B261" s="34" t="s">
         <v>18</v>
@@ -5726,12 +5725,12 @@
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B262" s="34" t="s">
         <v>18</v>
@@ -5739,12 +5738,12 @@
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B263" s="34" t="s">
         <v>18</v>
@@ -5752,12 +5751,12 @@
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B264" s="34" t="s">
         <v>18</v>
@@ -5765,12 +5764,12 @@
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B265" s="34" t="s">
         <v>18</v>
@@ -5778,12 +5777,12 @@
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B266" s="34" t="s">
         <v>18</v>
@@ -5791,12 +5790,12 @@
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B267" s="34" t="s">
         <v>18</v>
@@ -5804,12 +5803,12 @@
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B268" s="34" t="s">
         <v>18</v>
@@ -5817,12 +5816,12 @@
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B269" s="34" t="s">
         <v>18</v>
@@ -5830,12 +5829,12 @@
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B270" s="34" t="s">
         <v>7</v>
@@ -5843,12 +5842,12 @@
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B271" s="34" t="s">
         <v>7</v>
@@ -5856,12 +5855,12 @@
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B272" s="34" t="s">
         <v>7</v>
@@ -5869,12 +5868,12 @@
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B273" s="34" t="s">
         <v>18</v>
@@ -5882,12 +5881,12 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B274" s="34" t="s">
         <v>18</v>
@@ -5895,12 +5894,12 @@
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B275" s="34" t="s">
         <v>18</v>
@@ -5908,12 +5907,12 @@
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B276" s="34" t="s">
         <v>18</v>
@@ -5921,12 +5920,12 @@
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B277" s="34" t="s">
         <v>18</v>
@@ -5934,12 +5933,12 @@
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B278" s="34" t="s">
         <v>18</v>
@@ -5947,12 +5946,12 @@
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B279" s="34" t="s">
         <v>18</v>
@@ -5960,12 +5959,12 @@
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B280" s="34" t="s">
         <v>18</v>
@@ -5973,12 +5972,12 @@
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B281" s="34" t="s">
         <v>18</v>
@@ -5986,12 +5985,12 @@
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B282" s="34" t="s">
         <v>18</v>
@@ -5999,12 +5998,12 @@
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B283" s="34" t="s">
         <v>18</v>
@@ -6012,22 +6011,22 @@
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="B287" s="44"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
+      <c r="A287" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B287" s="45"/>
+      <c r="C287" s="45"/>
+      <c r="D287" s="45"/>
+      <c r="E287" s="45"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
@@ -6040,15 +6039,15 @@
         <v>4</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="24" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B290" s="37" t="s">
         <v>7</v>
@@ -6056,12 +6055,12 @@
       <c r="C290" s="24"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="24" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B291" s="37" t="s">
         <v>7</v>
@@ -6069,12 +6068,12 @@
       <c r="C291" s="24"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B292" s="37" t="s">
         <v>7</v>
@@ -6082,12 +6081,12 @@
       <c r="C292" s="24"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A293" s="18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B293" s="37" t="s">
         <v>7</v>
@@ -6095,12 +6094,12 @@
       <c r="C293" s="24"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B294" s="37" t="s">
         <v>7</v>
@@ -6108,12 +6107,12 @@
       <c r="C294" s="24"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B295" s="37" t="s">
         <v>7</v>
@@ -6121,12 +6120,12 @@
       <c r="C295" s="24"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B296" s="37" t="s">
         <v>7</v>
@@ -6134,12 +6133,12 @@
       <c r="C296" s="24"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B297" s="37" t="s">
         <v>7</v>
@@ -6147,12 +6146,12 @@
       <c r="C297" s="24"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B298" s="37" t="s">
         <v>7</v>
@@ -6160,12 +6159,12 @@
       <c r="C298" s="24"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B299" s="37" t="s">
         <v>7</v>
@@ -6173,12 +6172,12 @@
       <c r="C299" s="24"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B300" s="37" t="s">
         <v>7</v>
@@ -6186,12 +6185,12 @@
       <c r="C300" s="24"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B301" s="37" t="s">
         <v>7</v>
@@ -6199,12 +6198,12 @@
       <c r="C301" s="24"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B302" s="37" t="s">
         <v>7</v>
@@ -6212,12 +6211,12 @@
       <c r="C302" s="24"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B303" s="37" t="s">
         <v>7</v>
@@ -6225,12 +6224,12 @@
       <c r="C303" s="24"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B304" s="37" t="s">
         <v>7</v>
@@ -6238,12 +6237,12 @@
       <c r="C304" s="24"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B305" s="37" t="s">
         <v>7</v>
@@ -6251,12 +6250,12 @@
       <c r="C305" s="24"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B306" s="37" t="s">
         <v>7</v>
@@ -6264,12 +6263,12 @@
       <c r="C306" s="24"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B307" s="37" t="s">
         <v>7</v>
@@ -6277,12 +6276,12 @@
       <c r="C307" s="24"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B308" s="37" t="s">
         <v>7</v>
@@ -6290,12 +6289,12 @@
       <c r="C308" s="24"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B309" s="37" t="s">
         <v>7</v>
@@ -6303,12 +6302,12 @@
       <c r="C309" s="24"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B310" s="37" t="s">
         <v>7</v>
@@ -6316,12 +6315,12 @@
       <c r="C310" s="24"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B311" s="37" t="s">
         <v>7</v>
@@ -6329,12 +6328,12 @@
       <c r="C311" s="24"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B312" s="37" t="s">
         <v>7</v>
@@ -6342,12 +6341,12 @@
       <c r="C312" s="24"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B313" s="37" t="s">
         <v>7</v>
@@ -6355,12 +6354,12 @@
       <c r="C313" s="24"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B314" s="37" t="s">
         <v>7</v>
@@ -6368,12 +6367,12 @@
       <c r="C314" s="24"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B315" s="37" t="s">
         <v>7</v>
@@ -6381,12 +6380,12 @@
       <c r="C315" s="24"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B316" s="37" t="s">
         <v>7</v>
@@ -6394,12 +6393,12 @@
       <c r="C316" s="24"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B317" s="37" t="s">
         <v>7</v>
@@ -6407,12 +6406,12 @@
       <c r="C317" s="24"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B318" s="37" t="s">
         <v>7</v>
@@ -6420,12 +6419,12 @@
       <c r="C318" s="24"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B319" s="37" t="s">
         <v>7</v>
@@ -6433,12 +6432,12 @@
       <c r="C319" s="24"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B320" s="37" t="s">
         <v>7</v>
@@ -6446,12 +6445,12 @@
       <c r="C320" s="24"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B321" s="37" t="s">
         <v>7</v>
@@ -6459,12 +6458,12 @@
       <c r="C321" s="24"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B322" s="37" t="s">
         <v>7</v>
@@ -6472,12 +6471,12 @@
       <c r="C322" s="24"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B323" s="37" t="s">
         <v>7</v>
@@ -6485,12 +6484,12 @@
       <c r="C323" s="24"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B324" s="37" t="s">
         <v>7</v>
@@ -6498,12 +6497,12 @@
       <c r="C324" s="24"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B325" s="34" t="s">
         <v>7</v>
@@ -6511,12 +6510,12 @@
       <c r="C325" s="24"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B326" s="34" t="s">
         <v>7</v>
@@ -6524,12 +6523,12 @@
       <c r="C326" s="24"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B327" s="34" t="s">
         <v>7</v>
@@ -6537,12 +6536,12 @@
       <c r="C327" s="24"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B328" s="34" t="s">
         <v>7</v>
@@ -6550,12 +6549,12 @@
       <c r="C328" s="24"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B329" s="34" t="s">
         <v>7</v>
@@ -6563,12 +6562,12 @@
       <c r="C329" s="24"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B330" s="34" t="s">
         <v>7</v>
@@ -6576,12 +6575,12 @@
       <c r="C330" s="24"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B331" s="34" t="s">
         <v>7</v>
@@ -6589,17 +6588,17 @@
       <c r="C331" s="24"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6613,24 +6612,24 @@
         <v>4</v>
       </c>
       <c r="D337" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E337" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="B338" s="42"/>
-      <c r="C338" s="42"/>
-      <c r="D338" s="42"/>
-      <c r="E338" s="43"/>
+      <c r="A338" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338" s="43"/>
+      <c r="C338" s="43"/>
+      <c r="D338" s="43"/>
+      <c r="E338" s="44"/>
     </row>
     <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B339" s="34" t="s">
         <v>7</v>
@@ -6638,12 +6637,12 @@
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B340" s="34" t="s">
         <v>7</v>
@@ -6651,12 +6650,12 @@
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B341" s="34" t="s">
         <v>7</v>
@@ -6664,12 +6663,12 @@
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B342" s="34" t="s">
         <v>7</v>
@@ -6677,12 +6676,12 @@
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B343" s="34" t="s">
         <v>7</v>
@@ -6690,12 +6689,12 @@
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B344" s="34" t="s">
         <v>18</v>
@@ -6703,21 +6702,21 @@
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B345" s="42"/>
-      <c r="C345" s="42"/>
-      <c r="D345" s="42"/>
-      <c r="E345" s="43"/>
+      <c r="A345" s="42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B345" s="43"/>
+      <c r="C345" s="43"/>
+      <c r="D345" s="43"/>
+      <c r="E345" s="44"/>
     </row>
     <row r="346" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B346" s="34" t="s">
         <v>18</v>
@@ -6725,17 +6724,17 @@
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,15 +6748,15 @@
         <v>4</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B353" s="34" t="s">
         <v>7</v>
@@ -6765,12 +6764,12 @@
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B354" s="34" t="s">
         <v>7</v>
@@ -6778,12 +6777,12 @@
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B355" s="34" t="s">
         <v>7</v>
@@ -6791,12 +6790,12 @@
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B356" s="34" t="s">
         <v>7</v>
@@ -6804,12 +6803,12 @@
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B357" s="34" t="s">
         <v>7</v>
@@ -6817,12 +6816,12 @@
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B358" s="34" t="s">
         <v>7</v>
@@ -6830,12 +6829,12 @@
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B359" s="34" t="s">
         <v>7</v>
@@ -6843,12 +6842,12 @@
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B360" s="34" t="s">
         <v>7</v>
@@ -6856,12 +6855,12 @@
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B361" s="34" t="s">
         <v>7</v>
@@ -6869,12 +6868,12 @@
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B362" s="34" t="s">
         <v>7</v>
@@ -6882,12 +6881,12 @@
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B363" s="34" t="s">
         <v>7</v>
@@ -6895,12 +6894,12 @@
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B364" s="34" t="s">
         <v>7</v>
@@ -6908,17 +6907,17 @@
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -6932,15 +6931,15 @@
         <v>4</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B371" s="34" t="s">
         <v>7</v>
@@ -6948,17 +6947,17 @@
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,15 +6971,15 @@
         <v>4</v>
       </c>
       <c r="D377" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B378" s="34" t="s">
         <v>18</v>
@@ -6988,17 +6987,17 @@
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -7012,15 +7011,15 @@
         <v>4</v>
       </c>
       <c r="D384" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B385" s="34" t="s">
         <v>18</v>
@@ -7028,17 +7027,17 @@
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
@@ -7052,15 +7051,15 @@
         <v>4</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B392" s="34" t="s">
         <v>7</v>
@@ -7068,7 +7067,7 @@
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
@@ -7080,12 +7079,12 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,15 +7098,15 @@
         <v>4</v>
       </c>
       <c r="D398" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E398" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B399" s="34" t="s">
         <v>18</v>
@@ -7115,17 +7114,17 @@
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,15 +7138,15 @@
         <v>4</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E405" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B406" s="34" t="s">
         <v>7</v>
@@ -7155,17 +7154,17 @@
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -7179,15 +7178,15 @@
         <v>4</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E412" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B413" s="34" t="s">
         <v>18</v>
@@ -7195,17 +7194,17 @@
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
@@ -7219,15 +7218,15 @@
         <v>4</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B420" s="34" t="s">
         <v>18</v>
@@ -7235,17 +7234,17 @@
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
@@ -7259,15 +7258,15 @@
         <v>4</v>
       </c>
       <c r="D426" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B427" s="34" t="s">
         <v>18</v>
@@ -7275,7 +7274,7 @@
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
@@ -7287,12 +7286,12 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -7306,15 +7305,15 @@
         <v>4</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B434" s="34" t="s">
         <v>18</v>
@@ -7322,12 +7321,12 @@
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B435" s="34" t="s">
         <v>18</v>
@@ -7335,17 +7334,17 @@
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -7359,15 +7358,15 @@
         <v>4</v>
       </c>
       <c r="D441" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E441" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B442" s="34" t="s">
         <v>18</v>
@@ -7375,12 +7374,12 @@
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B443" s="34" t="s">
         <v>18</v>
@@ -7388,12 +7387,12 @@
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B444" s="34" t="s">
         <v>18</v>
@@ -7401,12 +7400,12 @@
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B445" s="34" t="s">
         <v>18</v>
@@ -7414,17 +7413,17 @@
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
@@ -7438,15 +7437,15 @@
         <v>4</v>
       </c>
       <c r="D451" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E451" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B452" s="34" t="s">
         <v>18</v>
@@ -7454,12 +7453,12 @@
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B453" s="34" t="s">
         <v>18</v>
@@ -7467,12 +7466,12 @@
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B454" s="34" t="s">
         <v>18</v>
@@ -7480,12 +7479,12 @@
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B455" s="34" t="s">
         <v>18</v>
@@ -7493,12 +7492,12 @@
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B456" s="34" t="s">
         <v>18</v>
@@ -7506,12 +7505,12 @@
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B457" s="34" t="s">
         <v>18</v>
@@ -7519,12 +7518,12 @@
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B458" s="34" t="s">
         <v>18</v>
@@ -7532,12 +7531,12 @@
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B459" s="34" t="s">
         <v>18</v>
@@ -7545,12 +7544,12 @@
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="460" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B460" s="34" t="s">
         <v>18</v>
@@ -7558,12 +7557,12 @@
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B461" s="34" t="s">
         <v>18</v>
@@ -7571,17 +7570,17 @@
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -7595,439 +7594,439 @@
         <v>4</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="468" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A468" s="25" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="B468" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C468" s="25"/>
       <c r="D468" s="25"/>
       <c r="E468" s="28" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" s="25" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B469" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C469" s="25"/>
       <c r="D469" s="25"/>
       <c r="E469" s="38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" s="25" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="B470" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C470" s="25"/>
       <c r="D470" s="25"/>
       <c r="E470" s="38" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="25" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B471" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C471" s="25"/>
       <c r="D471" s="25"/>
       <c r="E471" s="38" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="25" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B472" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
       <c r="E472" s="38" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="25" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B473" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
       <c r="E473" s="38" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="25" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B474" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="38" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B475" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="38" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="25" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B476" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
       <c r="E476" s="38" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="477" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A477" s="25" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B477" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="38" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="478" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B478" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="38" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A479" s="25" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="B479" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="38" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="25" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B480" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="38" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="25" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="B481" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="38" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A482" s="25" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="B482" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
       <c r="E482" s="38" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="25" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B483" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="38" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="484" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A484" s="25" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="B484" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
       <c r="E484" s="38" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="25" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B485" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
       <c r="E485" s="38" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" s="25" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B486" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
       <c r="E486" s="38" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="25" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B487" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
       <c r="E487" s="38" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="25" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="B488" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
       <c r="E488" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="25" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="B489" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
       <c r="E489" s="38" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="25" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B490" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
       <c r="E490" s="38" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="25" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="B491" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
       <c r="E491" s="38" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="25" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="B492" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
       <c r="E492" s="38" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="493" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A493" s="25" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B493" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
       <c r="E493" s="38" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="25" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="B494" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
       <c r="E494" s="38" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="495" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A495" s="25" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="B495" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
       <c r="E495" s="38" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="B496" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
       <c r="E496" s="38" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="25" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="B497" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
       <c r="E497" s="38" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="25" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="B498" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
       <c r="E498" s="38" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="25" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="B499" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
       <c r="E499" s="38" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="25" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="B500" s="29" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
       <c r="E500" s="38" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="709">
   <si>
     <t>epub30-test-0100.epub</t>
   </si>
@@ -129,9 +129,6 @@
     <t>mathml-021</t>
   </si>
   <si>
-    <t>mathml-028</t>
-  </si>
-  <si>
     <t>svg-010</t>
   </si>
   <si>
@@ -336,30 +333,12 @@
     <t>style-211</t>
   </si>
   <si>
-    <t>style-212</t>
-  </si>
-  <si>
-    <t>style-213</t>
-  </si>
-  <si>
     <t>style-220</t>
   </si>
   <si>
     <t>style-221</t>
   </si>
   <si>
-    <t>style-230</t>
-  </si>
-  <si>
-    <t>style-231</t>
-  </si>
-  <si>
-    <t>style-240</t>
-  </si>
-  <si>
-    <t>style-241</t>
-  </si>
-  <si>
     <t>style-310</t>
   </si>
   <si>
@@ -1230,9 +1209,6 @@
     <t>fxl-100</t>
   </si>
   <si>
-    <t>fxl-110</t>
-  </si>
-  <si>
     <t>epub30-test-0211.epub</t>
   </si>
   <si>
@@ -1353,9 +1329,6 @@
     <t>Tests whether basic CSS styling of MathML is supported on the mo element.</t>
   </si>
   <si>
-    <t>Tests whether mmultiscript elements as well as Greek and Gothic alphabets are supported.</t>
-  </si>
-  <si>
     <t>Tests whether the letter-spacing attribute is supported.</t>
   </si>
   <si>
@@ -1494,30 +1467,12 @@
     <t>Tests whether the @media rule set to screen is supported.</t>
   </si>
   <si>
-    <t>Tests whether the @media rule set to handheld is supported.</t>
-  </si>
-  <si>
-    <t>Tests whether the @media rule set to tv is supported.</t>
-  </si>
-  <si>
     <t>Tests whether the @media rule set to orientation:landscape is supported.</t>
   </si>
   <si>
     <t>Tests whether the @media rule set to orientation:portrait is supported.</t>
   </si>
   <si>
-    <t>Tests whether the @media rule set to min-width:200px is supported.</t>
-  </si>
-  <si>
-    <t>Tests whether the @media rule set to max-width:2000px is supported.</t>
-  </si>
-  <si>
-    <t>Tests whether the @media rule set to min-device-width:200px is supported.</t>
-  </si>
-  <si>
-    <t>Tests whether the @media rule set to max-device-width:2000px is supported.</t>
-  </si>
-  <si>
     <t>Tests whether the text-transform property set to uppercase is supported.</t>
   </si>
   <si>
@@ -1738,9 +1693,6 @@
   </si>
   <si>
     <t>Tests whether the global rendition:orientation setting can be overriden for individual spine items.</t>
-  </si>
-  <si>
-    <t>Tests whether the global rendition:spread setting can be overriden for individual spine items.</t>
   </si>
   <si>
     <t>General Info</t>
@@ -2177,12 +2129,45 @@
   <si>
     <t>Tests whether mmultiscript and munderover elements as well as Greek and Gothic alphabets are supported.</t>
   </si>
+  <si>
+    <t>jsonp-010</t>
+  </si>
+  <si>
+    <t>Tests whether it is possible to request remote data using JSONP.</t>
+  </si>
+  <si>
+    <t>readium-cfi-js</t>
+  </si>
+  <si>
+    <t>audio-040</t>
+  </si>
+  <si>
+    <t>Tests whether the HTML5 audio element is supported using audio on a remote server.</t>
+  </si>
+  <si>
+    <t>style-061</t>
+  </si>
+  <si>
+    <t>Tests whether CSS namespaces are supported.</t>
+  </si>
+  <si>
+    <t>style-610</t>
+  </si>
+  <si>
+    <t>style-611</t>
+  </si>
+  <si>
+    <t>Tests whether the day value for alternate style tags are supported.</t>
+  </si>
+  <si>
+    <t>Tests whether the night value for alternate style tags are supported.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2257,6 +2242,32 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16.8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2368,7 +2379,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2449,6 +2460,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2804,10 +2834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E500"/>
+  <dimension ref="A2:E504"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2822,11 +2852,11 @@
   <sheetData>
     <row r="2" spans="1:5" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="15" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D2" s="16"/>
     </row>
@@ -2839,31 +2869,31 @@
       <c r="A5" s="9"/>
       <c r="B5" s="32"/>
       <c r="C5" s="14" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="31"/>
       <c r="C6" s="5" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="31"/>
       <c r="C7" s="5" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="5"/>
@@ -2872,18 +2902,18 @@
       <c r="A8" s="6"/>
       <c r="B8" s="31"/>
       <c r="C8" s="5" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="21" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="31"/>
       <c r="C9" s="5" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="5"/>
@@ -2899,40 +2929,40 @@
       <c r="A11" s="6"/>
       <c r="B11" s="31"/>
       <c r="C11" s="5" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="31"/>
       <c r="C12" s="5" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="31"/>
       <c r="C13" s="5" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="5" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="31"/>
       <c r="C14" s="5" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="5"/>
@@ -2941,398 +2971,365 @@
       <c r="A15" s="6"/>
       <c r="B15" s="31"/>
       <c r="C15" s="5" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="5" t="s">
-        <v>582</v>
-      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
-        <v>598</v>
-      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="31"/>
       <c r="C18" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="5" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="31"/>
       <c r="C19" s="5" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="31"/>
       <c r="C20" s="5" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="23" t="s">
-        <v>600</v>
-      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="31"/>
       <c r="C21" s="5" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>601</v>
+      <c r="E21" s="23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="31"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>564</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="31"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="D24" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>586</v>
+      </c>
       <c r="B25" s="32"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>620</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="D26" s="12"/>
+    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="B27" s="34">
-        <f>SUM(C47:C103)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="27">
-        <f>(B27/56)</f>
-        <v>0</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="B28" s="34">
-        <f>SUM(C111:C153)</f>
+        <v>587</v>
+      </c>
+      <c r="B28" s="54">
+        <f>SUM(C52:C106,C108)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="26">
-        <f>B28/43</f>
+      <c r="C28" s="27">
+        <f>(B28/56)</f>
         <v>0</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="B29" s="34">
-        <f>SUM(C161:C208)</f>
+        <v>588</v>
+      </c>
+      <c r="B29" s="54">
+        <f>SUM(C116:C155)</f>
         <v>0</v>
       </c>
       <c r="C29" s="26">
-        <f>B29/56</f>
+        <f>(B29/40)</f>
         <v>0</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B30" s="34">
-        <f>SUM(C216:C228)</f>
+        <f>SUM(C164:C212)</f>
         <v>0</v>
       </c>
       <c r="C30" s="26">
-        <f>B30/13</f>
+        <f>(B30 / 49)</f>
         <v>0</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>694</v>
+        <v>591</v>
       </c>
       <c r="B31" s="34">
-        <f>SUM(C235,C242,C249)</f>
+        <f>SUM(C220:C232)</f>
         <v>0</v>
       </c>
       <c r="C31" s="26">
-        <f>B31/3</f>
+        <f>B31/13</f>
         <v>0</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="B32" s="34">
-        <f>SUM(C256:C283)</f>
+        <f>SUM(C239,C246,C253)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="26">
-        <f>B32/28</f>
+      <c r="C32" s="53">
+        <f>B32/3</f>
         <v>0</v>
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>609</v>
+        <v>592</v>
       </c>
       <c r="B33" s="34">
-        <f>SUM(C290:C331)</f>
+        <f>SUM(C260:C287)</f>
         <v>0</v>
       </c>
       <c r="C33" s="26">
-        <f>B33/42</f>
+        <f>B33/28</f>
         <v>0</v>
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="B34" s="34">
-        <f>SUM(C339:C344,C346)</f>
+        <f>SUM(C294:C335)</f>
         <v>0</v>
       </c>
       <c r="C34" s="26">
-        <f>B34/7</f>
+        <f>B34/42</f>
         <v>0</v>
       </c>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="B35" s="34">
-        <f>SUM(C353:C364)</f>
+        <f>SUM(C343:C348,C350)</f>
         <v>0</v>
       </c>
       <c r="C35" s="26">
-        <f>B35/12</f>
+        <f>B35/7</f>
         <v>0</v>
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="B36" s="34">
-        <f>SUM(C371,C378,C385,C392,C399,C406,C413,C420,C427,C434,C435,C442,C443,C444,C445)</f>
+        <f>SUM(C357:C368)</f>
         <v>0</v>
       </c>
       <c r="C36" s="26">
-        <f>B36/15</f>
+        <f>B36/12</f>
         <v>0</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="B37" s="34">
-        <f>SUM(C452:C461)</f>
+        <f>SUM(C375,C382,C389,C396,C403,C410,C417,C424,C431,C438,C439,C446,C447,C448,C449)</f>
         <v>0</v>
       </c>
       <c r="C37" s="26">
-        <f>B37/10</f>
+        <f>B37/15</f>
         <v>0</v>
       </c>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B38" s="34">
-        <f>SUM(C468:C500)</f>
+        <v>600</v>
+      </c>
+      <c r="B38" s="29">
+        <f>SUM(C456:C465)</f>
         <v>0</v>
       </c>
       <c r="C38" s="26">
-        <f>B38/32</f>
+        <f>B38/10</f>
         <v>0</v>
       </c>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B39" s="34">
-        <f>SUM(B27:B38)</f>
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50" t="s">
+        <v>597</v>
+      </c>
+      <c r="B39" s="51">
+        <f>SUM(B28:B38)</f>
         <v>0</v>
       </c>
-      <c r="C39" s="26">
-        <f>B39/304</f>
+      <c r="C39" s="52">
+        <f>B39/274</f>
         <v>0</v>
       </c>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="12"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="31"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="B42" s="31"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B44" s="34">
+        <f>SUM(C472:C504)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="C44" s="26">
+        <f>(B44/33)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="31"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="36" t="s">
+      <c r="B50" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="D50" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
+    </row>
+    <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="B52" s="34" t="s">
         <v>7</v>
@@ -3340,12 +3337,12 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B53" s="34" t="s">
         <v>7</v>
@@ -3353,90 +3350,90 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>432</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>23</v>
+      <c r="A59" s="46" t="s">
+        <v>701</v>
       </c>
       <c r="B59" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>435</v>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B60" s="34" t="s">
         <v>18</v>
@@ -3444,12 +3441,12 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B61" s="34" t="s">
         <v>18</v>
@@ -3457,285 +3454,285 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>31</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>33</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>703</v>
+        <v>28</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="41" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>705</v>
+      <c r="E70" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="41" t="s">
-        <v>706</v>
+      <c r="E71" s="4" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
-        <v>707</v>
+      <c r="A72" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B72" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="41" t="s">
-        <v>708</v>
+      <c r="E72" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>709</v>
+      <c r="A73" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="41" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
-        <v>710</v>
+      <c r="E73" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="41" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
-        <v>712</v>
+      <c r="E74" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="41" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>36</v>
+        <v>687</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>37</v>
+      <c r="E76" s="41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
+        <v>689</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>39</v>
+      <c r="E77" s="41" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>691</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
-        <v>40</v>
+      <c r="E78" s="41" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>41</v>
+      <c r="A79" s="28" t="s">
+        <v>693</v>
       </c>
       <c r="B79" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>42</v>
+      <c r="E79" s="41" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>694</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>43</v>
+      <c r="E80" s="41" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>696</v>
       </c>
       <c r="B81" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="E81" s="41" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A82" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B83" s="34" t="s">
         <v>7</v>
@@ -3743,12 +3740,12 @@
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>449</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>7</v>
@@ -3756,12 +3753,12 @@
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B85" s="34" t="s">
         <v>7</v>
@@ -3769,12 +3766,12 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>7</v>
@@ -3782,12 +3779,12 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B87" s="34" t="s">
         <v>7</v>
@@ -3795,12 +3792,12 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>7</v>
@@ -3808,12 +3805,12 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>7</v>
@@ -3821,12 +3818,12 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>7</v>
@@ -3834,12 +3831,12 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>7</v>
@@ -3847,12 +3844,12 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>7</v>
@@ -3860,12 +3857,12 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B93" s="34" t="s">
         <v>7</v>
@@ -3873,12 +3870,12 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>7</v>
@@ -3886,25 +3883,25 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>7</v>
@@ -3912,12 +3909,12 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>7</v>
@@ -3925,12 +3922,12 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>7</v>
@@ -3938,12 +3935,12 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B99" s="34" t="s">
         <v>7</v>
@@ -3951,47 +3948,51 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="44"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B103" s="34" t="s">
         <v>7</v>
@@ -3999,113 +4000,109 @@
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="56"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="46"/>
-      <c r="E110" s="46"/>
-    </row>
-    <row r="111" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B111" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B112" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B114" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B115" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>466</v>
-      </c>
+      <c r="B115" s="59"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="59"/>
     </row>
     <row r="116" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B116" s="34" t="s">
         <v>7</v>
@@ -4113,12 +4110,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>467</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B117" s="34" t="s">
         <v>7</v>
@@ -4126,12 +4123,12 @@
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B118" s="34" t="s">
         <v>7</v>
@@ -4139,12 +4136,12 @@
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>7</v>
@@ -4152,12 +4149,12 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>7</v>
@@ -4165,12 +4162,12 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>7</v>
@@ -4178,12 +4175,12 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>7</v>
@@ -4191,12 +4188,12 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>7</v>
@@ -4204,12 +4201,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>7</v>
@@ -4217,12 +4214,12 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>7</v>
@@ -4230,12 +4227,12 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>7</v>
@@ -4243,12 +4240,12 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B127" s="34" t="s">
         <v>7</v>
@@ -4256,12 +4253,12 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>7</v>
@@ -4269,12 +4266,12 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B129" s="34" t="s">
         <v>7</v>
@@ -4282,12 +4279,12 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>7</v>
@@ -4295,12 +4292,12 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B131" s="34" t="s">
         <v>7</v>
@@ -4308,12 +4305,12 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>7</v>
@@ -4321,12 +4318,12 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B133" s="34" t="s">
         <v>7</v>
@@ -4334,12 +4331,12 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B134" s="34" t="s">
         <v>7</v>
@@ -4347,12 +4344,12 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B135" s="34" t="s">
         <v>7</v>
@@ -4360,12 +4357,12 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B136" s="34" t="s">
         <v>7</v>
@@ -4373,12 +4370,12 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B137" s="34" t="s">
         <v>7</v>
@@ -4386,12 +4383,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B138" s="34" t="s">
         <v>7</v>
@@ -4399,12 +4396,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>7</v>
@@ -4412,12 +4409,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B140" s="34" t="s">
         <v>7</v>
@@ -4425,12 +4422,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>7</v>
@@ -4438,12 +4435,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B142" s="34" t="s">
         <v>7</v>
@@ -4451,25 +4448,25 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>108</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="46" t="s">
+        <v>703</v>
       </c>
       <c r="B143" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4" t="s">
-        <v>494</v>
+      <c r="C143" s="46"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B144" s="34" t="s">
         <v>7</v>
@@ -4477,12 +4474,12 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>7</v>
@@ -4490,12 +4487,12 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B146" s="34" t="s">
         <v>7</v>
@@ -4503,12 +4500,12 @@
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B147" s="34" t="s">
         <v>7</v>
@@ -4516,12 +4513,12 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>7</v>
@@ -4529,12 +4526,12 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B149" s="34" t="s">
         <v>7</v>
@@ -4542,12 +4539,12 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>7</v>
@@ -4555,12 +4552,12 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B151" s="34" t="s">
         <v>7</v>
@@ -4568,12 +4565,12 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B152" s="34" t="s">
         <v>7</v>
@@ -4581,12 +4578,12 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B153" s="34" t="s">
         <v>7</v>
@@ -4594,139 +4591,126 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A154" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="46" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A155" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="46"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="46" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="36" t="s">
+      <c r="B162" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B160" s="46"/>
-      <c r="C160" s="46"/>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-    </row>
-    <row r="161" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B161" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B162" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B163" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4" t="s">
-        <v>507</v>
-      </c>
+      <c r="D162" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
     </row>
     <row r="164" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B168" s="34" t="s">
         <v>18</v>
@@ -4734,12 +4718,12 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B169" s="34" t="s">
         <v>18</v>
@@ -4747,12 +4731,12 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B170" s="34" t="s">
         <v>18</v>
@@ -4760,12 +4744,12 @@
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B171" s="34" t="s">
         <v>18</v>
@@ -4773,12 +4757,12 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B172" s="34" t="s">
         <v>18</v>
@@ -4786,12 +4770,12 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>134</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>18</v>
@@ -4799,12 +4783,12 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>136</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B174" s="34" t="s">
         <v>18</v>
@@ -4812,12 +4796,12 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B175" s="34" t="s">
         <v>18</v>
@@ -4825,12 +4809,12 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B176" s="34" t="s">
         <v>18</v>
@@ -4838,25 +4822,25 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>517</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B177" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A177" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="B177" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="42"/>
+      <c r="D177" s="42"/>
+      <c r="E177" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B178" s="34" t="s">
         <v>18</v>
@@ -4864,12 +4848,12 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>18</v>
@@ -4877,12 +4861,12 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B180" s="34" t="s">
         <v>18</v>
@@ -4890,12 +4874,12 @@
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B181" s="34" t="s">
         <v>18</v>
@@ -4903,12 +4887,12 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B182" s="34" t="s">
         <v>18</v>
@@ -4916,25 +4900,25 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>150</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B184" s="34" t="s">
         <v>18</v>
@@ -4942,12 +4926,12 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B185" s="34" t="s">
         <v>18</v>
@@ -4955,12 +4939,12 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>522</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B186" s="34" t="s">
         <v>18</v>
@@ -4968,25 +4952,25 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>523</v>
+        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B188" s="34" t="s">
         <v>18</v>
@@ -4994,12 +4978,12 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B189" s="34" t="s">
         <v>18</v>
@@ -5007,12 +4991,12 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B190" s="34" t="s">
         <v>18</v>
@@ -5020,12 +5004,12 @@
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B191" s="34" t="s">
         <v>18</v>
@@ -5033,12 +5017,12 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>18</v>
@@ -5046,12 +5030,12 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>18</v>
@@ -5059,12 +5043,12 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B194" s="34" t="s">
         <v>18</v>
@@ -5072,12 +5056,12 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B195" s="34" t="s">
         <v>18</v>
@@ -5085,12 +5069,12 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>581</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>18</v>
@@ -5098,12 +5082,12 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B197" s="34" t="s">
         <v>18</v>
@@ -5111,12 +5095,12 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B198" s="34" t="s">
         <v>18</v>
@@ -5124,12 +5108,12 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B199" s="34" t="s">
         <v>18</v>
@@ -5137,12 +5121,12 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B200" s="34" t="s">
         <v>18</v>
@@ -5150,12 +5134,12 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>18</v>
@@ -5163,12 +5147,12 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>18</v>
@@ -5176,12 +5160,12 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>18</v>
@@ -5189,12 +5173,12 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B204" s="34" t="s">
         <v>18</v>
@@ -5202,12 +5186,12 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B205" s="34" t="s">
         <v>18</v>
@@ -5215,12 +5199,12 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B206" s="34" t="s">
         <v>18</v>
@@ -5228,12 +5212,12 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>18</v>
@@ -5241,12 +5225,12 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B208" s="34" t="s">
         <v>18</v>
@@ -5254,100 +5238,100 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>178</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B210" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B211" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="7" t="s">
+      <c r="A214" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="36" t="s">
+      <c r="B218" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C218" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D214" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B215" s="46"/>
-      <c r="C215" s="46"/>
-      <c r="D215" s="46"/>
-      <c r="E215" s="46"/>
-    </row>
-    <row r="216" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B216" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B217" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B218" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B219" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="D218" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="59"/>
+    </row>
+    <row r="220" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B220" s="34" t="s">
         <v>7</v>
@@ -5355,12 +5339,12 @@
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="B221" s="34" t="s">
         <v>7</v>
@@ -5368,12 +5352,12 @@
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B222" s="34" t="s">
         <v>7</v>
@@ -5381,12 +5365,12 @@
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B223" s="34" t="s">
         <v>7</v>
@@ -5394,12 +5378,12 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B224" s="34" t="s">
         <v>7</v>
@@ -5407,12 +5391,12 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B225" s="34" t="s">
         <v>7</v>
@@ -5420,12 +5404,12 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B226" s="34" t="s">
         <v>7</v>
@@ -5433,12 +5417,12 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B227" s="34" t="s">
         <v>7</v>
@@ -5446,12 +5430,12 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B228" s="34" t="s">
         <v>7</v>
@@ -5459,252 +5443,252 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
-      <c r="B229" s="31"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D230" s="39"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D231" s="39"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D232" s="39"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B231" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B232" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D233" s="39"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
+      <c r="A234" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D234" s="39"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D235" s="39"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D236" s="39"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D237" s="39"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="36" t="s">
+      <c r="B238" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C238" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D234" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E234" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A235" s="40" t="s">
-        <v>698</v>
-      </c>
-      <c r="B235" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C235" s="40"/>
-      <c r="D235" s="40"/>
-      <c r="E235" s="40" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="31"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D237" s="39"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D238" s="39"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D239" s="39"/>
+      <c r="D238" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A239" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="B239" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C239" s="40"/>
+      <c r="D239" s="40"/>
+      <c r="E239" s="40" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D240" s="39"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
+      <c r="A241" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D241" s="39"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D242" s="39"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D243" s="39"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D244" s="39"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="36" t="s">
+      <c r="B245" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C245" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D241" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A242" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="B242" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C242" s="40"/>
-      <c r="D242" s="40"/>
-      <c r="E242" s="40" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D244" s="39"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D245" s="39"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="D246" s="39"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D247" s="39"/>
+      <c r="D245" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A246" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="B246" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" s="40"/>
+      <c r="D246" s="40"/>
+      <c r="E246" s="40" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D248" s="39"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D249" s="39"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D250" s="39"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D251" s="39"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="36" t="s">
+      <c r="B252" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C252" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D248" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A249" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="B249" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C249" s="40"/>
-      <c r="D249" s="40"/>
-      <c r="E249" s="40" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D250" s="39"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>206</v>
-      </c>
+      <c r="D252" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A253" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="B253" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" s="40"/>
+      <c r="D253" s="40"/>
+      <c r="E253" s="40" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D254" s="39"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
+      <c r="A255" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B255" s="36" t="s">
+      <c r="B259" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="C259" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D255" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A256" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B256" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B257" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A258" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B258" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
-      <c r="E258" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B259" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
-      <c r="E259" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D259" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B260" s="34" t="s">
         <v>18</v>
@@ -5712,12 +5696,12 @@
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B261" s="34" t="s">
         <v>18</v>
@@ -5725,12 +5709,12 @@
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B262" s="34" t="s">
         <v>18</v>
@@ -5738,12 +5722,12 @@
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B263" s="34" t="s">
         <v>18</v>
@@ -5751,12 +5735,12 @@
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B264" s="34" t="s">
         <v>18</v>
@@ -5764,12 +5748,12 @@
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B265" s="34" t="s">
         <v>18</v>
@@ -5777,12 +5761,12 @@
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B266" s="34" t="s">
         <v>18</v>
@@ -5790,12 +5774,12 @@
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B267" s="34" t="s">
         <v>18</v>
@@ -5803,12 +5787,12 @@
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B268" s="34" t="s">
         <v>18</v>
@@ -5816,12 +5800,12 @@
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B269" s="34" t="s">
         <v>18</v>
@@ -5829,51 +5813,51 @@
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>546</v>
+        <v>221</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>548</v>
+        <v>225</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B273" s="34" t="s">
         <v>18</v>
@@ -5881,51 +5865,51 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>243</v>
+        <v>532</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>245</v>
+        <v>533</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B277" s="34" t="s">
         <v>18</v>
@@ -5933,12 +5917,12 @@
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B278" s="34" t="s">
         <v>18</v>
@@ -5946,12 +5930,12 @@
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B279" s="34" t="s">
         <v>18</v>
@@ -5959,12 +5943,12 @@
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B280" s="34" t="s">
         <v>18</v>
@@ -5972,12 +5956,12 @@
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B281" s="34" t="s">
         <v>18</v>
@@ -5985,12 +5969,12 @@
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B282" s="34" t="s">
         <v>18</v>
@@ -5998,12 +5982,12 @@
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B283" s="34" t="s">
         <v>18</v>
@@ -6011,95 +5995,95 @@
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="B287" s="45"/>
-      <c r="C287" s="45"/>
-      <c r="D287" s="45"/>
-      <c r="E287" s="45"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B284" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B285" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B286" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B287" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="7" t="s">
+      <c r="A289" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" s="58"/>
+      <c r="C291" s="58"/>
+      <c r="D291" s="58"/>
+      <c r="E291" s="58"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B289" s="36" t="s">
+      <c r="B293" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C289" s="7" t="s">
+      <c r="C293" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D289" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E289" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A290" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B290" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C290" s="24"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A291" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B291" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C291" s="24"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A292" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B292" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="24"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A293" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B293" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C293" s="24"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4" t="s">
-        <v>268</v>
+      <c r="D293" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A294" s="18" t="s">
-        <v>269</v>
+      <c r="A294" s="24" t="s">
+        <v>255</v>
       </c>
       <c r="B294" s="37" t="s">
         <v>7</v>
@@ -6107,12 +6091,12 @@
       <c r="C294" s="24"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4" t="s">
-        <v>270</v>
+        <v>598</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A295" s="4" t="s">
-        <v>271</v>
+      <c r="A295" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="B295" s="37" t="s">
         <v>7</v>
@@ -6120,12 +6104,12 @@
       <c r="C295" s="24"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A296" s="4" t="s">
-        <v>273</v>
+      <c r="A296" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="B296" s="37" t="s">
         <v>7</v>
@@ -6133,12 +6117,12 @@
       <c r="C296" s="24"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A297" s="4" t="s">
-        <v>275</v>
+      <c r="A297" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="B297" s="37" t="s">
         <v>7</v>
@@ -6146,12 +6130,12 @@
       <c r="C297" s="24"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A298" s="4" t="s">
-        <v>277</v>
+      <c r="A298" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="B298" s="37" t="s">
         <v>7</v>
@@ -6159,12 +6143,12 @@
       <c r="C298" s="24"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B299" s="37" t="s">
         <v>7</v>
@@ -6172,12 +6156,12 @@
       <c r="C299" s="24"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B300" s="37" t="s">
         <v>7</v>
@@ -6185,12 +6169,12 @@
       <c r="C300" s="24"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B301" s="37" t="s">
         <v>7</v>
@@ -6198,12 +6182,12 @@
       <c r="C301" s="24"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B302" s="37" t="s">
         <v>7</v>
@@ -6211,12 +6195,12 @@
       <c r="C302" s="24"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B303" s="37" t="s">
         <v>7</v>
@@ -6224,12 +6208,12 @@
       <c r="C303" s="24"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B304" s="37" t="s">
         <v>7</v>
@@ -6237,12 +6221,12 @@
       <c r="C304" s="24"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
-        <v>615</v>
+        <v>275</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B305" s="37" t="s">
         <v>7</v>
@@ -6250,12 +6234,12 @@
       <c r="C305" s="24"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B306" s="37" t="s">
         <v>7</v>
@@ -6263,12 +6247,12 @@
       <c r="C306" s="24"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B307" s="37" t="s">
         <v>7</v>
@@ -6276,12 +6260,12 @@
       <c r="C307" s="24"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B308" s="37" t="s">
         <v>7</v>
@@ -6289,12 +6273,12 @@
       <c r="C308" s="24"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B309" s="37" t="s">
         <v>7</v>
@@ -6302,12 +6286,12 @@
       <c r="C309" s="24"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B310" s="37" t="s">
         <v>7</v>
@@ -6315,12 +6299,12 @@
       <c r="C310" s="24"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B311" s="37" t="s">
         <v>7</v>
@@ -6328,12 +6312,12 @@
       <c r="C311" s="24"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B312" s="37" t="s">
         <v>7</v>
@@ -6341,12 +6325,12 @@
       <c r="C312" s="24"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
-        <v>303</v>
+        <v>534</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B313" s="37" t="s">
         <v>7</v>
@@ -6354,12 +6338,12 @@
       <c r="C313" s="24"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B314" s="37" t="s">
         <v>7</v>
@@ -6367,12 +6351,12 @@
       <c r="C314" s="24"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B315" s="37" t="s">
         <v>7</v>
@@ -6380,12 +6364,12 @@
       <c r="C315" s="24"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B316" s="37" t="s">
         <v>7</v>
@@ -6393,12 +6377,12 @@
       <c r="C316" s="24"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="B317" s="37" t="s">
         <v>7</v>
@@ -6406,12 +6390,12 @@
       <c r="C317" s="24"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B318" s="37" t="s">
         <v>7</v>
@@ -6419,12 +6403,12 @@
       <c r="C318" s="24"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B319" s="37" t="s">
         <v>7</v>
@@ -6432,12 +6416,12 @@
       <c r="C319" s="24"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B320" s="37" t="s">
         <v>7</v>
@@ -6445,12 +6429,12 @@
       <c r="C320" s="24"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B321" s="37" t="s">
         <v>7</v>
@@ -6458,12 +6442,12 @@
       <c r="C321" s="24"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="B322" s="37" t="s">
         <v>7</v>
@@ -6471,12 +6455,12 @@
       <c r="C322" s="24"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B323" s="37" t="s">
         <v>7</v>
@@ -6484,12 +6468,12 @@
       <c r="C323" s="24"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B324" s="37" t="s">
         <v>7</v>
@@ -6497,64 +6481,64 @@
       <c r="C324" s="24"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B325" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B325" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C325" s="24"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B326" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="B326" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C326" s="24"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B327" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B327" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C327" s="24"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B328" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B328" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C328" s="24"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B329" s="34" t="s">
         <v>7</v>
@@ -6562,12 +6546,12 @@
       <c r="C329" s="24"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B330" s="34" t="s">
         <v>7</v>
@@ -6575,12 +6559,12 @@
       <c r="C330" s="24"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B331" s="34" t="s">
         <v>7</v>
@@ -6588,100 +6572,100 @@
       <c r="C331" s="24"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>343</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B332" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="24"/>
+      <c r="D332" s="4"/>
+      <c r="E332" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B333" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="24"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B334" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="24"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B335" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="24"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
+      <c r="A337" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B337" s="36" t="s">
+      <c r="B341" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C337" s="7" t="s">
+      <c r="C341" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D337" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E337" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="B338" s="43"/>
-      <c r="C338" s="43"/>
-      <c r="D338" s="43"/>
-      <c r="E338" s="44"/>
-    </row>
-    <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A339" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B339" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B340" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A341" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B341" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A342" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B342" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="D341" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="B342" s="56"/>
+      <c r="C342" s="56"/>
+      <c r="D342" s="56"/>
+      <c r="E342" s="57"/>
     </row>
     <row r="343" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B343" s="34" t="s">
         <v>7</v>
@@ -6689,126 +6673,126 @@
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="B345" s="43"/>
-      <c r="C345" s="43"/>
-      <c r="D345" s="43"/>
-      <c r="E345" s="44"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B345" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="4"/>
+      <c r="D345" s="4"/>
+      <c r="E345" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="346" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>361</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" s="56"/>
+      <c r="C349" s="56"/>
+      <c r="D349" s="56"/>
+      <c r="E349" s="57"/>
+    </row>
+    <row r="350" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B352" s="36" t="s">
+      <c r="B356" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C352" s="7" t="s">
+      <c r="C356" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D352" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E352" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B353" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
-      <c r="E353" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B354" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A355" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B355" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B356" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="D356" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E356" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B357" s="34" t="s">
         <v>7</v>
@@ -6816,12 +6800,12 @@
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B358" s="34" t="s">
         <v>7</v>
@@ -6829,12 +6813,12 @@
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B359" s="34" t="s">
         <v>7</v>
@@ -6842,12 +6826,12 @@
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B360" s="34" t="s">
         <v>7</v>
@@ -6855,12 +6839,12 @@
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B361" s="34" t="s">
         <v>7</v>
@@ -6868,12 +6852,12 @@
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B362" s="34" t="s">
         <v>7</v>
@@ -6881,12 +6865,12 @@
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B363" s="34" t="s">
         <v>7</v>
@@ -6894,12 +6878,12 @@
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B364" s="34" t="s">
         <v>7</v>
@@ -6907,597 +6891,591 @@
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B365" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="4"/>
+      <c r="D365" s="4"/>
+      <c r="E365" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B366" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="4"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B367" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B368" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+      <c r="E368" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B374" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D374" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E374" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B375" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+      <c r="E375" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B381" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E381" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B382" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+      <c r="E382" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D388" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E388" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
+      <c r="B389" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C389" s="4"/>
+      <c r="D389" s="4"/>
+      <c r="E389" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B370" s="36" t="s">
+      <c r="B395" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C370" s="7" t="s">
+      <c r="C395" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D370" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E370" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A371" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B371" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
-      <c r="E371" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+      <c r="D395" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E395" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="7" t="s">
+      <c r="B396" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396" s="4"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="5"/>
+      <c r="B397" s="34"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="5"/>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B377" s="36" t="s">
+      <c r="B402" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C377" s="7" t="s">
+      <c r="C402" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D377" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E377" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A378" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B378" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+      <c r="D402" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E402" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="7" t="s">
+      <c r="B403" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B384" s="36" t="s">
+      <c r="B409" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C409" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D384" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E384" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A385" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B385" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+      <c r="D409" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E409" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="7" t="s">
+      <c r="B410" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" s="4"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B391" s="36" t="s">
+      <c r="B416" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C391" s="7" t="s">
+      <c r="C416" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D391" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E391" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A392" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B392" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="5"/>
-      <c r="B393" s="34"/>
-      <c r="C393" s="5"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="5"/>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396" s="2" t="s">
+      <c r="D416" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E416" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="7" t="s">
+      <c r="B417" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C417" s="4"/>
+      <c r="D417" s="4"/>
+      <c r="E417" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B398" s="36" t="s">
+      <c r="B423" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C398" s="7" t="s">
+      <c r="C423" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D398" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E398" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A399" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B399" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="D423" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E423" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B424" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C424" s="4"/>
+      <c r="D424" s="4"/>
+      <c r="E424" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="7" t="s">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B405" s="36" t="s">
+      <c r="B430" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C430" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D405" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E405" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A406" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B406" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="D430" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E430" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" s="2" t="s">
+      <c r="B431" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" s="4"/>
+      <c r="D431" s="4"/>
+      <c r="E431" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="5"/>
+      <c r="B432" s="34"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="4"/>
+      <c r="E432" s="5"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B412" s="36" t="s">
+      <c r="B437" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C412" s="7" t="s">
+      <c r="C437" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D412" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E412" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A413" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B413" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="D437" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E437" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+      <c r="B438" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C438" s="4"/>
+      <c r="D438" s="4"/>
+      <c r="E438" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="4"/>
+      <c r="B439" s="34"/>
+      <c r="C439" s="4"/>
+      <c r="D439" s="4"/>
+      <c r="E439" s="4"/>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B419" s="36" t="s">
+      <c r="B445" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C419" s="7" t="s">
+      <c r="C445" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D419" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E419" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B420" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="D445" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E445" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="7" t="s">
+      <c r="B446" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C446" s="4"/>
+      <c r="D446" s="4"/>
+      <c r="E446" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B447" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447" s="4"/>
+      <c r="D447" s="4"/>
+      <c r="E447" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B448" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C448" s="4"/>
+      <c r="D448" s="4"/>
+      <c r="E448" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B449" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="4"/>
+      <c r="D449" s="4"/>
+      <c r="E449" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B426" s="36" t="s">
+      <c r="B455" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C455" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D426" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E426" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A427" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B427" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="5"/>
-      <c r="B428" s="34"/>
-      <c r="C428" s="5"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="5"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B433" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C433" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D433" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E433" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A434" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B434" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A435" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B435" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B441" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C441" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D441" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E441" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A442" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B442" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A443" s="4" t="s">
+      <c r="D455" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E455" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B443" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A444" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B444" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
-      <c r="E444" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A445" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B445" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B451" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D451" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E451" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A452" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B452" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B453" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A454" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B454" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A455" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B455" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="B456" s="34" t="s">
         <v>18</v>
@@ -7505,12 +7483,12 @@
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B457" s="34" t="s">
         <v>18</v>
@@ -7518,12 +7496,12 @@
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B458" s="34" t="s">
         <v>18</v>
@@ -7531,12 +7509,12 @@
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B459" s="34" t="s">
         <v>18</v>
@@ -7544,12 +7522,12 @@
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B460" s="34" t="s">
         <v>18</v>
@@ -7557,12 +7535,12 @@
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
-        <v>425</v>
+        <v>209</v>
       </c>
     </row>
     <row r="461" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B461" s="34" t="s">
         <v>18</v>
@@ -7570,479 +7548,531 @@
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465" s="2" t="s">
-        <v>623</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A462" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B462" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C462" s="4"/>
+      <c r="D462" s="4"/>
+      <c r="E462" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A463" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B463" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C463" s="4"/>
+      <c r="D463" s="4"/>
+      <c r="E463" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B464" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C464" s="4"/>
+      <c r="D464" s="4"/>
+      <c r="E464" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B465" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C465" s="4"/>
+      <c r="D465" s="4"/>
+      <c r="E465" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="7" t="s">
+      <c r="A467" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B467" s="36" t="s">
+      <c r="B471" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C467" s="7" t="s">
+      <c r="C471" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D467" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="E467" s="7" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A468" s="25" t="s">
-        <v>624</v>
-      </c>
-      <c r="B468" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="C468" s="25"/>
-      <c r="D468" s="25"/>
-      <c r="E468" s="28" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B469" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="C469" s="25"/>
-      <c r="D469" s="25"/>
-      <c r="E469" s="38" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="B470" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="C470" s="25"/>
-      <c r="D470" s="25"/>
-      <c r="E470" s="38" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="25" t="s">
-        <v>631</v>
-      </c>
-      <c r="B471" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="C471" s="25"/>
-      <c r="D471" s="25"/>
-      <c r="E471" s="38" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D471" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E471" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A472" s="25" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B472" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C472" s="25"/>
       <c r="D472" s="25"/>
-      <c r="E472" s="38" t="s">
-        <v>636</v>
+      <c r="E472" s="28" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="25" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="B473" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C473" s="25"/>
       <c r="D473" s="25"/>
       <c r="E473" s="38" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="25" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="B474" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C474" s="25"/>
       <c r="D474" s="25"/>
       <c r="E474" s="38" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="25" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="B475" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C475" s="25"/>
       <c r="D475" s="25"/>
       <c r="E475" s="38" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="25" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="B476" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
       <c r="E476" s="38" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="25" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="B477" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="38" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B478" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="38" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="25" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="B479" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="38" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="25" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B480" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="38" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A481" s="25" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B481" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="38" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
     </row>
     <row r="482" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A482" s="25" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="B482" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
       <c r="E482" s="38" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A483" s="25" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="B483" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="38" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="25" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="B484" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
       <c r="E484" s="38" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" s="25" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="B485" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
       <c r="E485" s="38" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A486" s="25" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="B486" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
       <c r="E486" s="38" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" s="25" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="B487" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
       <c r="E487" s="38" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A488" s="25" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="B488" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
       <c r="E488" s="38" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="25" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="B489" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
       <c r="E489" s="38" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" s="25" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="B490" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
       <c r="E490" s="38" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="25" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="B491" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
       <c r="E491" s="38" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" s="25" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="B492" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
       <c r="E492" s="38" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="25" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="B493" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
       <c r="E493" s="38" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="25" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="B494" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
       <c r="E494" s="38" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="25" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B495" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
       <c r="E495" s="38" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="B496" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
       <c r="E496" s="38" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A497" s="25" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="B497" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
       <c r="E497" s="38" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="25" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="B498" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
       <c r="E498" s="38" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A499" s="25" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="B499" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
       <c r="E499" s="38" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="25" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="B500" s="29" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
       <c r="E500" s="38" t="s">
-        <v>690</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B501" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C501" s="25"/>
+      <c r="D501" s="25"/>
+      <c r="E501" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B502" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C502" s="25"/>
+      <c r="D502" s="25"/>
+      <c r="E502" s="38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B503" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C503" s="25"/>
+      <c r="D503" s="25"/>
+      <c r="E503" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B504" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C504" s="25"/>
+      <c r="D504" s="25"/>
+      <c r="E504" s="38" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A345:E345"/>
-    <mergeCell ref="A287:E287"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A215:E215"/>
+    <mergeCell ref="A342:E342"/>
+    <mergeCell ref="A349:E349"/>
+    <mergeCell ref="A291:E291"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A219:E219"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>
-    <hyperlink ref="E20" r:id="rId2"/>
+    <hyperlink ref="E21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>

--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="717">
   <si>
     <t>epub30-test-0100.epub</t>
   </si>
@@ -2161,6 +2161,30 @@
   </si>
   <si>
     <t>Tests whether the night value for alternate style tags are supported.</t>
+  </si>
+  <si>
+    <t>mathml-050</t>
+  </si>
+  <si>
+    <t>Tests whether horizontal stretch, mover, munder, mspaceelements are supported.</t>
+  </si>
+  <si>
+    <t>mathml-070</t>
+  </si>
+  <si>
+    <t>Tests basic support for bi-directional layout and Arabic alphabets.</t>
+  </si>
+  <si>
+    <t>mathml-081</t>
+  </si>
+  <si>
+    <t>Tests whether mstack and mscarries elements are supported.</t>
+  </si>
+  <si>
+    <t>mo-playback-010</t>
+  </si>
+  <si>
+    <t>Tests whether the media:playback-active-class property is supported (authored CSS styles).</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2403,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2479,6 +2503,9 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2834,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E504"/>
+  <dimension ref="A2:E508"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E290" sqref="E290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3114,7 @@
         <v>587</v>
       </c>
       <c r="B28" s="54">
-        <f>SUM(C52:C106,C108)</f>
+        <f>SUM(C52:C109,C111)</f>
         <v>0</v>
       </c>
       <c r="C28" s="27">
@@ -3101,7 +3128,7 @@
         <v>588</v>
       </c>
       <c r="B29" s="54">
-        <f>SUM(C116:C155)</f>
+        <f>SUM(C119:C158)</f>
         <v>0</v>
       </c>
       <c r="C29" s="26">
@@ -3115,7 +3142,7 @@
         <v>589</v>
       </c>
       <c r="B30" s="34">
-        <f>SUM(C164:C212)</f>
+        <f>SUM(C167:C215)</f>
         <v>0</v>
       </c>
       <c r="C30" s="26">
@@ -3129,7 +3156,7 @@
         <v>591</v>
       </c>
       <c r="B31" s="34">
-        <f>SUM(C220:C232)</f>
+        <f>SUM(C223:C235)</f>
         <v>0</v>
       </c>
       <c r="C31" s="26">
@@ -3143,7 +3170,7 @@
         <v>678</v>
       </c>
       <c r="B32" s="34">
-        <f>SUM(C239,C246,C253)</f>
+        <f>SUM(C242,C249,C256)</f>
         <v>0</v>
       </c>
       <c r="C32" s="53">
@@ -3157,7 +3184,7 @@
         <v>592</v>
       </c>
       <c r="B33" s="34">
-        <f>SUM(C260:C287)</f>
+        <f>SUM(C263:C291)</f>
         <v>0</v>
       </c>
       <c r="C33" s="26">
@@ -3171,7 +3198,7 @@
         <v>593</v>
       </c>
       <c r="B34" s="34">
-        <f>SUM(C294:C335)</f>
+        <f>SUM(C298:C339)</f>
         <v>0</v>
       </c>
       <c r="C34" s="26">
@@ -3185,7 +3212,7 @@
         <v>594</v>
       </c>
       <c r="B35" s="34">
-        <f>SUM(C343:C348,C350)</f>
+        <f>SUM(C347:C352,C354)</f>
         <v>0</v>
       </c>
       <c r="C35" s="26">
@@ -3199,7 +3226,7 @@
         <v>595</v>
       </c>
       <c r="B36" s="34">
-        <f>SUM(C357:C368)</f>
+        <f>SUM(C361:C372)</f>
         <v>0</v>
       </c>
       <c r="C36" s="26">
@@ -3213,7 +3240,7 @@
         <v>596</v>
       </c>
       <c r="B37" s="34">
-        <f>SUM(C375,C382,C389,C396,C403,C410,C417,C424,C431,C438,C439,C446,C447,C448,C449)</f>
+        <f>SUM(C379,C386,C393,C400,C407,C414,C421,C428,C435,C442,C443,C450,C451,C452,C453)</f>
         <v>0</v>
       </c>
       <c r="C37" s="26">
@@ -3227,7 +3254,7 @@
         <v>600</v>
       </c>
       <c r="B38" s="29">
-        <f>SUM(C456:C465)</f>
+        <f>SUM(C460:C469)</f>
         <v>0</v>
       </c>
       <c r="C38" s="26">
@@ -3278,7 +3305,7 @@
         <v>605</v>
       </c>
       <c r="B44" s="34">
-        <f>SUM(C472:C504)</f>
+        <f>SUM(C476:C508)</f>
         <v>0</v>
       </c>
       <c r="C44" s="26">
@@ -3319,13 +3346,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
     </row>
     <row r="52" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -3665,22 +3692,22 @@
         <v>690</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="B78" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="41" t="s">
-        <v>692</v>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B79" s="34" t="s">
         <v>7</v>
@@ -3691,9 +3718,9 @@
         <v>692</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B80" s="34" t="s">
         <v>7</v>
@@ -3701,77 +3728,77 @@
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="41" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="B82" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="41" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
+    <row r="83" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="28" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
         <v>696</v>
-      </c>
-      <c r="B81" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="41" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="B84" s="34" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="55" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="45" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A85" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B86" s="34" t="s">
         <v>7</v>
@@ -3779,12 +3806,12 @@
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B87" s="34" t="s">
         <v>7</v>
@@ -3792,12 +3819,12 @@
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B88" s="34" t="s">
         <v>7</v>
@@ -3805,12 +3832,12 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B89" s="34" t="s">
         <v>7</v>
@@ -3818,12 +3845,12 @@
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B90" s="34" t="s">
         <v>7</v>
@@ -3831,12 +3858,12 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B91" s="34" t="s">
         <v>7</v>
@@ -3844,12 +3871,12 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B92" s="34" t="s">
         <v>7</v>
@@ -3857,12 +3884,12 @@
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>49</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B93" s="34" t="s">
         <v>7</v>
@@ -3870,12 +3897,12 @@
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B94" s="34" t="s">
         <v>7</v>
@@ -3883,12 +3910,12 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B95" s="34" t="s">
         <v>7</v>
@@ -3896,12 +3923,12 @@
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B96" s="34" t="s">
         <v>7</v>
@@ -3909,12 +3936,12 @@
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B97" s="34" t="s">
         <v>7</v>
@@ -3922,12 +3949,12 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B98" s="34" t="s">
         <v>7</v>
@@ -3935,12 +3962,12 @@
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B99" s="34" t="s">
         <v>7</v>
@@ -3948,25 +3975,25 @@
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>57</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B101" s="34" t="s">
         <v>7</v>
@@ -3974,12 +4001,12 @@
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>60</v>
+        <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B102" s="34" t="s">
         <v>7</v>
@@ -3987,25 +4014,25 @@
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B104" s="34" t="s">
         <v>7</v>
@@ -4013,12 +4040,12 @@
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B105" s="34" t="s">
         <v>7</v>
@@ -4026,34 +4053,38 @@
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>65</v>
+        <v>451</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" s="56"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="57"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B108" s="34" t="s">
         <v>7</v>
@@ -4061,87 +4092,83 @@
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="58"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="36" t="s">
+      <c r="B117" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D117" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E117" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="59" t="s">
+    <row r="118" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B115" s="59"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="59"/>
-    </row>
-    <row r="116" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B116" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B117" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4" t="s">
-        <v>455</v>
-      </c>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
     </row>
     <row r="119" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B119" s="34" t="s">
         <v>7</v>
@@ -4149,12 +4176,12 @@
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>456</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B120" s="34" t="s">
         <v>7</v>
@@ -4162,12 +4189,12 @@
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B121" s="34" t="s">
         <v>7</v>
@@ -4175,12 +4202,12 @@
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B122" s="34" t="s">
         <v>7</v>
@@ -4188,12 +4215,12 @@
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>7</v>
@@ -4201,12 +4228,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B124" s="34" t="s">
         <v>7</v>
@@ -4214,12 +4241,12 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B125" s="34" t="s">
         <v>7</v>
@@ -4227,12 +4254,12 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B126" s="34" t="s">
         <v>7</v>
@@ -4240,12 +4267,12 @@
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B127" s="34" t="s">
         <v>7</v>
@@ -4253,12 +4280,12 @@
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B128" s="34" t="s">
         <v>7</v>
@@ -4266,12 +4293,12 @@
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B129" s="34" t="s">
         <v>7</v>
@@ -4279,12 +4306,12 @@
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B130" s="34" t="s">
         <v>7</v>
@@ -4292,12 +4319,12 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B131" s="34" t="s">
         <v>7</v>
@@ -4305,12 +4332,12 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B132" s="34" t="s">
         <v>7</v>
@@ -4318,12 +4345,12 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B133" s="34" t="s">
         <v>7</v>
@@ -4331,12 +4358,12 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B134" s="34" t="s">
         <v>7</v>
@@ -4344,12 +4371,12 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B135" s="34" t="s">
         <v>7</v>
@@ -4357,12 +4384,12 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B136" s="34" t="s">
         <v>7</v>
@@ -4370,12 +4397,12 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B137" s="34" t="s">
         <v>7</v>
@@ -4383,12 +4410,12 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B138" s="34" t="s">
         <v>7</v>
@@ -4396,12 +4423,12 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B139" s="34" t="s">
         <v>7</v>
@@ -4409,12 +4436,12 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B140" s="34" t="s">
         <v>7</v>
@@ -4422,12 +4449,12 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B141" s="34" t="s">
         <v>7</v>
@@ -4435,12 +4462,12 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B142" s="34" t="s">
         <v>7</v>
@@ -4448,25 +4475,25 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="46" t="s">
-        <v>703</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B143" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
-      <c r="E143" s="46" t="s">
-        <v>704</v>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B144" s="34" t="s">
         <v>7</v>
@@ -4474,12 +4501,12 @@
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B145" s="34" t="s">
         <v>7</v>
@@ -4487,25 +4514,25 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>104</v>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="46" t="s">
+        <v>703</v>
       </c>
       <c r="B146" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4" t="s">
-        <v>482</v>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B147" s="34" t="s">
         <v>7</v>
@@ -4513,12 +4540,12 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B148" s="34" t="s">
         <v>7</v>
@@ -4526,12 +4553,12 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B149" s="34" t="s">
         <v>7</v>
@@ -4539,12 +4566,12 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B150" s="34" t="s">
         <v>7</v>
@@ -4552,12 +4579,12 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B151" s="34" t="s">
         <v>7</v>
@@ -4565,12 +4592,12 @@
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B152" s="34" t="s">
         <v>7</v>
@@ -4578,12 +4605,12 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B153" s="34" t="s">
         <v>7</v>
@@ -4591,165 +4618,165 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A154" s="46" t="s">
+    <row r="157" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A157" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="46" t="s">
+      <c r="B157" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="46"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A155" s="28" t="s">
+    <row r="158" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A158" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="B155" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C155" s="46"/>
-      <c r="D155" s="46"/>
-      <c r="E155" s="46" t="s">
+      <c r="B158" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="46"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="B165" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E162" s="7" t="s">
+      <c r="E165" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="59" t="s">
+    <row r="166" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-    </row>
-    <row r="164" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B164" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B165" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="60"/>
     </row>
     <row r="167" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B171" s="34" t="s">
         <v>18</v>
@@ -4757,12 +4784,12 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B172" s="34" t="s">
         <v>18</v>
@@ -4770,12 +4797,12 @@
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B173" s="34" t="s">
         <v>18</v>
@@ -4783,12 +4810,12 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B174" s="34" t="s">
         <v>18</v>
@@ -4796,12 +4823,12 @@
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B175" s="34" t="s">
         <v>18</v>
@@ -4809,12 +4836,12 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B176" s="34" t="s">
         <v>18</v>
@@ -4822,25 +4849,25 @@
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="s">
-        <v>698</v>
-      </c>
-      <c r="B177" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" s="42"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="42" t="s">
-        <v>699</v>
+      <c r="A177" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B178" s="34" t="s">
         <v>18</v>
@@ -4848,12 +4875,12 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>501</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B179" s="34" t="s">
         <v>18</v>
@@ -4861,25 +4888,25 @@
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B180" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4" t="s">
-        <v>502</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A180" s="42" t="s">
+        <v>698</v>
+      </c>
+      <c r="B180" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
+      <c r="E180" s="42" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B181" s="34" t="s">
         <v>18</v>
@@ -4887,12 +4914,12 @@
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B182" s="34" t="s">
         <v>18</v>
@@ -4900,12 +4927,12 @@
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B183" s="34" t="s">
         <v>18</v>
@@ -4913,12 +4940,12 @@
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B184" s="34" t="s">
         <v>18</v>
@@ -4926,12 +4953,12 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B185" s="34" t="s">
         <v>18</v>
@@ -4939,12 +4966,12 @@
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>141</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B186" s="34" t="s">
         <v>18</v>
@@ -4952,25 +4979,25 @@
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
-        <v>143</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B188" s="34" t="s">
         <v>18</v>
@@ -4978,12 +5005,12 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>506</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B189" s="34" t="s">
         <v>18</v>
@@ -4991,25 +5018,25 @@
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>507</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B191" s="34" t="s">
         <v>18</v>
@@ -5017,12 +5044,12 @@
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B192" s="34" t="s">
         <v>18</v>
@@ -5030,12 +5057,12 @@
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B193" s="34" t="s">
         <v>18</v>
@@ -5043,12 +5070,12 @@
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B194" s="34" t="s">
         <v>18</v>
@@ -5056,12 +5083,12 @@
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B195" s="34" t="s">
         <v>18</v>
@@ -5069,12 +5096,12 @@
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B196" s="34" t="s">
         <v>18</v>
@@ -5082,12 +5109,12 @@
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B197" s="34" t="s">
         <v>18</v>
@@ -5095,12 +5122,12 @@
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B198" s="34" t="s">
         <v>18</v>
@@ -5108,12 +5135,12 @@
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B199" s="34" t="s">
         <v>18</v>
@@ -5121,12 +5148,12 @@
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B200" s="34" t="s">
         <v>18</v>
@@ -5134,12 +5161,12 @@
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B201" s="34" t="s">
         <v>18</v>
@@ -5147,12 +5174,12 @@
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B202" s="34" t="s">
         <v>18</v>
@@ -5160,12 +5187,12 @@
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B203" s="34" t="s">
         <v>18</v>
@@ -5173,12 +5200,12 @@
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B204" s="34" t="s">
         <v>18</v>
@@ -5186,12 +5213,12 @@
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B205" s="34" t="s">
         <v>18</v>
@@ -5199,12 +5226,12 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B206" s="34" t="s">
         <v>18</v>
@@ -5212,12 +5239,12 @@
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>18</v>
@@ -5225,12 +5252,12 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B208" s="34" t="s">
         <v>18</v>
@@ -5238,12 +5265,12 @@
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B209" s="34" t="s">
         <v>18</v>
@@ -5251,12 +5278,12 @@
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B210" s="34" t="s">
         <v>18</v>
@@ -5264,12 +5291,12 @@
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B211" s="34" t="s">
         <v>18</v>
@@ -5277,12 +5304,12 @@
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B212" s="34" t="s">
         <v>18</v>
@@ -5290,87 +5317,87 @@
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B213" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B214" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="7" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="36" t="s">
+      <c r="B221" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C221" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D221" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E218" s="7" t="s">
+      <c r="E221" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="59" t="s">
+    <row r="222" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B219" s="59"/>
-      <c r="C219" s="59"/>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-    </row>
-    <row r="220" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="B222" s="60"/>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+    </row>
+    <row r="223" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B220" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B221" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B222" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
-      <c r="E222" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="B223" s="34" t="s">
         <v>7</v>
@@ -5378,12 +5405,12 @@
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B224" s="34" t="s">
         <v>7</v>
@@ -5391,12 +5418,12 @@
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B225" s="34" t="s">
         <v>7</v>
@@ -5404,12 +5431,12 @@
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B226" s="34" t="s">
         <v>7</v>
@@ -5417,12 +5444,12 @@
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B227" s="34" t="s">
         <v>7</v>
@@ -5430,12 +5457,12 @@
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B228" s="34" t="s">
         <v>7</v>
@@ -5443,12 +5470,12 @@
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B229" s="34" t="s">
         <v>7</v>
@@ -5456,12 +5483,12 @@
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B230" s="34" t="s">
         <v>7</v>
@@ -5469,12 +5496,12 @@
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B231" s="34" t="s">
         <v>7</v>
@@ -5482,12 +5509,12 @@
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B232" s="34" t="s">
         <v>7</v>
@@ -5495,239 +5522,239 @@
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B234" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B235" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="12"/>
-      <c r="B233" s="31"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="12"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D234" s="39"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D235" s="39"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
+      <c r="D237" s="39"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D238" s="39"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D236" s="39"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D237" s="39"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="7" t="s">
+      <c r="D239" s="39"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D240" s="39"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="B241" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E238" s="7" t="s">
+      <c r="E241" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A239" s="40" t="s">
+    <row r="242" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A242" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="B239" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C239" s="40"/>
-      <c r="D239" s="40"/>
-      <c r="E239" s="40" t="s">
+      <c r="B242" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C242" s="40"/>
+      <c r="D242" s="40"/>
+      <c r="E242" s="40" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="12"/>
-      <c r="B240" s="31"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D241" s="39"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D242" s="39"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="D244" s="39"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D245" s="39"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D243" s="39"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D244" s="39"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
+      <c r="D246" s="39"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D247" s="39"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="36" t="s">
+      <c r="B248" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C248" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D248" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E245" s="7" t="s">
+      <c r="E248" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A246" s="40" t="s">
+    <row r="249" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A249" s="40" t="s">
         <v>681</v>
       </c>
-      <c r="B246" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C246" s="40"/>
-      <c r="D246" s="40"/>
-      <c r="E246" s="40" t="s">
+      <c r="B249" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" s="40"/>
+      <c r="D249" s="40"/>
+      <c r="E249" s="40" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D248" s="39"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D249" s="39"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
+      <c r="D251" s="39"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D252" s="39"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D250" s="39"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D251" s="39"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B252" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D252" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A253" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="B253" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C253" s="40"/>
-      <c r="D253" s="40"/>
-      <c r="E253" s="40" t="s">
-        <v>685</v>
-      </c>
+      <c r="D253" s="39"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D254" s="39"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A256" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="B256" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" s="40"/>
+      <c r="D256" s="40"/>
+      <c r="E256" s="40" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D257" s="39"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B259" s="36" t="s">
+      <c r="B262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C262" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D259" s="7" t="s">
+      <c r="D262" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E259" s="7" t="s">
+      <c r="E262" s="7" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A260" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B260" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B261" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A262" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B262" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B263" s="34" t="s">
         <v>18</v>
@@ -5735,12 +5762,12 @@
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B264" s="34" t="s">
         <v>18</v>
@@ -5748,12 +5775,12 @@
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B265" s="34" t="s">
         <v>18</v>
@@ -5761,12 +5788,12 @@
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B266" s="34" t="s">
         <v>18</v>
@@ -5774,12 +5801,12 @@
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B267" s="34" t="s">
         <v>18</v>
@@ -5787,12 +5814,12 @@
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B268" s="34" t="s">
         <v>18</v>
@@ -5800,12 +5827,12 @@
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B269" s="34" t="s">
         <v>18</v>
@@ -5813,12 +5840,12 @@
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B270" s="34" t="s">
         <v>18</v>
@@ -5826,12 +5853,12 @@
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B271" s="34" t="s">
         <v>18</v>
@@ -5839,12 +5866,12 @@
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B272" s="34" t="s">
         <v>18</v>
@@ -5852,12 +5879,12 @@
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B273" s="34" t="s">
         <v>18</v>
@@ -5865,90 +5892,90 @@
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4" t="s">
-        <v>232</v>
+        <v>531</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4" t="s">
-        <v>234</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B280" s="34" t="s">
         <v>18</v>
@@ -5956,12 +5983,12 @@
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B281" s="34" t="s">
         <v>18</v>
@@ -5969,12 +5996,12 @@
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B282" s="34" t="s">
         <v>18</v>
@@ -5982,12 +6009,12 @@
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B283" s="34" t="s">
         <v>18</v>
@@ -5995,12 +6022,12 @@
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B284" s="34" t="s">
         <v>18</v>
@@ -6008,12 +6035,12 @@
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B285" s="34" t="s">
         <v>18</v>
@@ -6021,12 +6048,12 @@
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B286" s="34" t="s">
         <v>18</v>
@@ -6034,12 +6061,12 @@
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B287" s="34" t="s">
         <v>18</v>
@@ -6047,95 +6074,95 @@
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B288" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B289" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A290" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="B290" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C290" s="55"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B291" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="58" t="s">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="B291" s="58"/>
-      <c r="C291" s="58"/>
-      <c r="D291" s="58"/>
-      <c r="E291" s="58"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="B295" s="59"/>
+      <c r="C295" s="59"/>
+      <c r="D295" s="59"/>
+      <c r="E295" s="59"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B293" s="36" t="s">
+      <c r="B297" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C293" s="7" t="s">
+      <c r="C297" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D297" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="7" t="s">
+      <c r="E297" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A294" s="24" t="s">
+    <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A298" s="24" t="s">
         <v>255</v>
-      </c>
-      <c r="B294" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C294" s="24"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A295" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="B295" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C295" s="24"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A296" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B296" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C296" s="24"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A297" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B297" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C297" s="24"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A298" s="18" t="s">
-        <v>262</v>
       </c>
       <c r="B298" s="37" t="s">
         <v>7</v>
@@ -6143,12 +6170,12 @@
       <c r="C298" s="24"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4" t="s">
-        <v>263</v>
+        <v>598</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A299" s="4" t="s">
-        <v>264</v>
+      <c r="A299" s="24" t="s">
+        <v>256</v>
       </c>
       <c r="B299" s="37" t="s">
         <v>7</v>
@@ -6156,12 +6183,12 @@
       <c r="C299" s="24"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A300" s="4" t="s">
-        <v>266</v>
+      <c r="A300" s="18" t="s">
+        <v>258</v>
       </c>
       <c r="B300" s="37" t="s">
         <v>7</v>
@@ -6169,12 +6196,12 @@
       <c r="C300" s="24"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A301" s="4" t="s">
-        <v>268</v>
+      <c r="A301" s="18" t="s">
+        <v>260</v>
       </c>
       <c r="B301" s="37" t="s">
         <v>7</v>
@@ -6182,12 +6209,12 @@
       <c r="C301" s="24"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A302" s="4" t="s">
-        <v>270</v>
+      <c r="A302" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="B302" s="37" t="s">
         <v>7</v>
@@ -6195,12 +6222,12 @@
       <c r="C302" s="24"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B303" s="37" t="s">
         <v>7</v>
@@ -6208,12 +6235,12 @@
       <c r="C303" s="24"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B304" s="37" t="s">
         <v>7</v>
@@ -6221,12 +6248,12 @@
       <c r="C304" s="24"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B305" s="37" t="s">
         <v>7</v>
@@ -6234,12 +6261,12 @@
       <c r="C305" s="24"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B306" s="37" t="s">
         <v>7</v>
@@ -6247,12 +6274,12 @@
       <c r="C306" s="24"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B307" s="37" t="s">
         <v>7</v>
@@ -6260,12 +6287,12 @@
       <c r="C307" s="24"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B308" s="37" t="s">
         <v>7</v>
@@ -6273,12 +6300,12 @@
       <c r="C308" s="24"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4" t="s">
-        <v>599</v>
+        <v>275</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B309" s="37" t="s">
         <v>7</v>
@@ -6286,12 +6313,12 @@
       <c r="C309" s="24"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B310" s="37" t="s">
         <v>7</v>
@@ -6299,12 +6326,12 @@
       <c r="C310" s="24"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B311" s="37" t="s">
         <v>7</v>
@@ -6312,12 +6339,12 @@
       <c r="C311" s="24"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B312" s="37" t="s">
         <v>7</v>
@@ -6325,12 +6352,12 @@
       <c r="C312" s="24"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B313" s="37" t="s">
         <v>7</v>
@@ -6338,12 +6365,12 @@
       <c r="C313" s="24"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B314" s="37" t="s">
         <v>7</v>
@@ -6351,12 +6378,12 @@
       <c r="C314" s="24"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B315" s="37" t="s">
         <v>7</v>
@@ -6364,12 +6391,12 @@
       <c r="C315" s="24"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B316" s="37" t="s">
         <v>7</v>
@@ -6377,12 +6404,12 @@
       <c r="C316" s="24"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B317" s="37" t="s">
         <v>7</v>
@@ -6390,12 +6417,12 @@
       <c r="C317" s="24"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B318" s="37" t="s">
         <v>7</v>
@@ -6403,12 +6430,12 @@
       <c r="C318" s="24"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B319" s="37" t="s">
         <v>7</v>
@@ -6416,12 +6443,12 @@
       <c r="C319" s="24"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B320" s="37" t="s">
         <v>7</v>
@@ -6429,12 +6456,12 @@
       <c r="C320" s="24"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B321" s="37" t="s">
         <v>7</v>
@@ -6442,12 +6469,12 @@
       <c r="C321" s="24"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="108" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B322" s="37" t="s">
         <v>7</v>
@@ -6455,12 +6482,12 @@
       <c r="C322" s="24"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B323" s="37" t="s">
         <v>7</v>
@@ -6468,12 +6495,12 @@
       <c r="C323" s="24"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B324" s="37" t="s">
         <v>7</v>
@@ -6481,12 +6508,12 @@
       <c r="C324" s="24"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B325" s="37" t="s">
         <v>7</v>
@@ -6494,12 +6521,12 @@
       <c r="C325" s="24"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B326" s="37" t="s">
         <v>7</v>
@@ -6507,12 +6534,12 @@
       <c r="C326" s="24"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B327" s="37" t="s">
         <v>7</v>
@@ -6520,12 +6547,12 @@
       <c r="C327" s="24"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B328" s="37" t="s">
         <v>7</v>
@@ -6533,64 +6560,64 @@
       <c r="C328" s="24"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B329" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B329" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C329" s="24"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B330" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="B330" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C330" s="24"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="54" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B331" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B331" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C331" s="24"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B332" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B332" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C332" s="24"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B333" s="34" t="s">
         <v>7</v>
@@ -6598,12 +6625,12 @@
       <c r="C333" s="24"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B334" s="34" t="s">
         <v>7</v>
@@ -6611,12 +6638,12 @@
       <c r="C334" s="24"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B335" s="34" t="s">
         <v>7</v>
@@ -6624,100 +6651,100 @@
       <c r="C335" s="24"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B336" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="24"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B337" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="24"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B338" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="24"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B339" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="24"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B341" s="36" t="s">
+      <c r="B345" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C341" s="7" t="s">
+      <c r="C345" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D341" s="7" t="s">
+      <c r="D345" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E341" s="7" t="s">
+      <c r="E345" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="55" t="s">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="B342" s="56"/>
-      <c r="C342" s="56"/>
-      <c r="D342" s="56"/>
-      <c r="E342" s="57"/>
-    </row>
-    <row r="343" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A343" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B343" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B344" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A345" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B345" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B346" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="B346" s="57"/>
+      <c r="C346" s="57"/>
+      <c r="D346" s="57"/>
+      <c r="E346" s="58"/>
     </row>
     <row r="347" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B347" s="34" t="s">
         <v>7</v>
@@ -6725,126 +6752,126 @@
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="B349" s="56"/>
-      <c r="C349" s="56"/>
-      <c r="D349" s="56"/>
-      <c r="E349" s="57"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B349" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="350" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B351" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="4"/>
+      <c r="D351" s="4"/>
+      <c r="E351" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B352" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C352" s="4"/>
+      <c r="D352" s="4"/>
+      <c r="E352" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="B353" s="57"/>
+      <c r="C353" s="57"/>
+      <c r="D353" s="57"/>
+      <c r="E353" s="58"/>
+    </row>
+    <row r="354" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B354" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C354" s="4"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B356" s="36" t="s">
+      <c r="B360" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C356" s="7" t="s">
+      <c r="C360" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="D360" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E356" s="7" t="s">
+      <c r="E360" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="4" t="s">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="B357" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B358" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A359" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B359" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
-      <c r="E359" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B360" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
-      <c r="E360" s="4" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A361" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="B361" s="34" t="s">
         <v>7</v>
@@ -6852,12 +6879,12 @@
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B362" s="34" t="s">
         <v>7</v>
@@ -6865,12 +6892,12 @@
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B363" s="34" t="s">
         <v>7</v>
@@ -6878,12 +6905,12 @@
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B364" s="34" t="s">
         <v>7</v>
@@ -6891,12 +6918,12 @@
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B365" s="34" t="s">
         <v>7</v>
@@ -6904,12 +6931,12 @@
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B366" s="34" t="s">
         <v>7</v>
@@ -6917,12 +6944,12 @@
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B367" s="34" t="s">
         <v>7</v>
@@ -6930,12 +6957,12 @@
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B368" s="34" t="s">
         <v>7</v>
@@ -6943,591 +6970,591 @@
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B369" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
+      <c r="E369" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B370" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="4"/>
+      <c r="D370" s="4"/>
+      <c r="E370" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B371" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+      <c r="E371" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B372" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B374" s="36" t="s">
+      <c r="B378" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C374" s="7" t="s">
+      <c r="C378" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D374" s="7" t="s">
+      <c r="D378" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E374" s="7" t="s">
+      <c r="E378" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A375" s="4" t="s">
+    <row r="379" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B375" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4" t="s">
+      <c r="B379" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B381" s="36" t="s">
+      <c r="B385" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C381" s="7" t="s">
+      <c r="C385" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D381" s="7" t="s">
+      <c r="D385" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="7" t="s">
+      <c r="E385" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A382" s="4" t="s">
+    <row r="386" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B382" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4" t="s">
+      <c r="B386" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C386" s="4"/>
+      <c r="D386" s="4"/>
+      <c r="E386" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="2" t="s">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="7" t="s">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B388" s="36" t="s">
+      <c r="B392" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C388" s="7" t="s">
+      <c r="C392" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D388" s="7" t="s">
+      <c r="D392" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E388" s="7" t="s">
+      <c r="E392" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
+    <row r="393" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B389" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="4" t="s">
+      <c r="B393" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C393" s="4"/>
+      <c r="D393" s="4"/>
+      <c r="E393" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="2" t="s">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395" s="7" t="s">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B395" s="36" t="s">
+      <c r="B399" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C395" s="7" t="s">
+      <c r="C399" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D395" s="7" t="s">
+      <c r="D399" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E395" s="7" t="s">
+      <c r="E399" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A396" s="4" t="s">
+    <row r="400" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B396" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4" t="s">
+      <c r="B400" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400" s="4"/>
+      <c r="D400" s="4"/>
+      <c r="E400" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="5"/>
-      <c r="B397" s="34"/>
-      <c r="C397" s="5"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="5"/>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="5"/>
+      <c r="B401" s="34"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="4"/>
+      <c r="E401" s="5"/>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="7" t="s">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B402" s="36" t="s">
+      <c r="B406" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C402" s="7" t="s">
+      <c r="C406" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D402" s="7" t="s">
+      <c r="D406" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E402" s="7" t="s">
+      <c r="E406" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A403" s="4" t="s">
+    <row r="407" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B403" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4" t="s">
+      <c r="B407" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C407" s="4"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="2" t="s">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409" s="7" t="s">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B409" s="36" t="s">
+      <c r="B413" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C409" s="7" t="s">
+      <c r="C413" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D409" s="7" t="s">
+      <c r="D413" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E409" s="7" t="s">
+      <c r="E413" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A410" s="4" t="s">
+    <row r="414" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B410" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4" t="s">
+      <c r="B414" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" s="4"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414" s="2" t="s">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416" s="7" t="s">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B416" s="36" t="s">
+      <c r="B420" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C420" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D416" s="7" t="s">
+      <c r="D420" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E416" s="7" t="s">
+      <c r="E420" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A417" s="4" t="s">
+    <row r="421" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B417" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4" t="s">
+      <c r="B421" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C421" s="4"/>
+      <c r="D421" s="4"/>
+      <c r="E421" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" s="2" t="s">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" s="7" t="s">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B423" s="36" t="s">
+      <c r="B427" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C427" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D423" s="7" t="s">
+      <c r="D427" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="7" t="s">
+      <c r="E427" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A424" s="4" t="s">
+    <row r="428" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B424" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4" t="s">
+      <c r="B428" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C428" s="4"/>
+      <c r="D428" s="4"/>
+      <c r="E428" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430" s="7" t="s">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B430" s="36" t="s">
+      <c r="B434" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C430" s="7" t="s">
+      <c r="C434" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D430" s="7" t="s">
+      <c r="D434" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E430" s="7" t="s">
+      <c r="E434" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="A431" s="4" t="s">
+    <row r="435" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B431" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4" t="s">
+      <c r="B435" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C435" s="4"/>
+      <c r="D435" s="4"/>
+      <c r="E435" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="5"/>
-      <c r="B432" s="34"/>
-      <c r="C432" s="5"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="5"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="5"/>
+      <c r="B436" s="34"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="4"/>
+      <c r="E436" s="5"/>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="7" t="s">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B437" s="36" t="s">
+      <c r="B441" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C437" s="7" t="s">
+      <c r="C441" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D437" s="7" t="s">
+      <c r="D441" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E437" s="7" t="s">
+      <c r="E441" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A438" s="4" t="s">
+    <row r="442" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4" t="s">
+      <c r="B442" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C442" s="4"/>
+      <c r="D442" s="4"/>
+      <c r="E442" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="4"/>
-      <c r="B439" s="34"/>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="4"/>
+      <c r="B443" s="34"/>
+      <c r="C443" s="4"/>
+      <c r="D443" s="4"/>
+      <c r="E443" s="4"/>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="2" t="s">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="7" t="s">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B445" s="36" t="s">
+      <c r="B449" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C449" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D445" s="7" t="s">
+      <c r="D449" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E445" s="7" t="s">
+      <c r="E449" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A446" s="4" t="s">
+    <row r="450" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A450" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B446" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="4" t="s">
+      <c r="B450" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C450" s="4"/>
+      <c r="D450" s="4"/>
+      <c r="E450" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
+    <row r="451" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A451" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B447" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4" t="s">
+      <c r="B451" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C451" s="4"/>
+      <c r="D451" s="4"/>
+      <c r="E451" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A448" s="4" t="s">
+    <row r="452" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A452" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B448" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4" t="s">
+      <c r="B452" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C452" s="4"/>
+      <c r="D452" s="4"/>
+      <c r="E452" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A449" s="4" t="s">
+    <row r="453" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A453" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B449" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="4" t="s">
+      <c r="B453" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C453" s="4"/>
+      <c r="D453" s="4"/>
+      <c r="E453" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453" s="2" t="s">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="7" t="s">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B455" s="36" t="s">
+      <c r="B459" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C455" s="7" t="s">
+      <c r="C459" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D455" s="7" t="s">
+      <c r="D459" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E455" s="7" t="s">
+      <c r="E459" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A456" s="4" t="s">
+    <row r="460" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A460" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B456" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="B457" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A458" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B458" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A459" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="B459" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460" s="4" t="s">
-        <v>412</v>
       </c>
       <c r="B460" s="34" t="s">
         <v>18</v>
@@ -7535,12 +7562,12 @@
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B461" s="34" t="s">
         <v>18</v>
@@ -7548,12 +7575,12 @@
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="462" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B462" s="34" t="s">
         <v>18</v>
@@ -7561,12 +7588,12 @@
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="463" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B463" s="34" t="s">
         <v>18</v>
@@ -7574,12 +7601,12 @@
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B464" s="34" t="s">
         <v>18</v>
@@ -7587,12 +7614,12 @@
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B465" s="34" t="s">
         <v>18</v>
@@ -7600,104 +7627,104 @@
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A466" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B466" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C466" s="4"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A467" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B467" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C467" s="4"/>
+      <c r="D467" s="4"/>
+      <c r="E467" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="A468" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B468" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C468" s="4"/>
+      <c r="D468" s="4"/>
+      <c r="E468" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A469" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B469" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C469" s="4"/>
+      <c r="D469" s="4"/>
+      <c r="E469" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="7" t="s">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B471" s="36" t="s">
+      <c r="B475" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C475" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D471" s="7" t="s">
+      <c r="D475" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="E471" s="7" t="s">
+      <c r="E475" s="7" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A472" s="25" t="s">
+    <row r="476" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A476" s="25" t="s">
         <v>608</v>
-      </c>
-      <c r="B472" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C472" s="25"/>
-      <c r="D472" s="25"/>
-      <c r="E472" s="28" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="25" t="s">
-        <v>611</v>
-      </c>
-      <c r="B473" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C473" s="25"/>
-      <c r="D473" s="25"/>
-      <c r="E473" s="38" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474" s="25" t="s">
-        <v>613</v>
-      </c>
-      <c r="B474" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C474" s="25"/>
-      <c r="D474" s="25"/>
-      <c r="E474" s="38" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="B475" s="29" t="s">
-        <v>609</v>
-      </c>
-      <c r="C475" s="25"/>
-      <c r="D475" s="25"/>
-      <c r="E475" s="38" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476" s="25" t="s">
-        <v>617</v>
       </c>
       <c r="B476" s="29" t="s">
         <v>609</v>
       </c>
       <c r="C476" s="25"/>
       <c r="D476" s="25"/>
-      <c r="E476" s="38" t="s">
-        <v>620</v>
+      <c r="E476" s="28" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="25" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B477" s="29" t="s">
         <v>609</v>
@@ -7705,12 +7732,12 @@
       <c r="C477" s="25"/>
       <c r="D477" s="25"/>
       <c r="E477" s="38" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="25" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B478" s="29" t="s">
         <v>609</v>
@@ -7718,12 +7745,12 @@
       <c r="C478" s="25"/>
       <c r="D478" s="25"/>
       <c r="E478" s="38" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="25" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B479" s="29" t="s">
         <v>609</v>
@@ -7731,12 +7758,12 @@
       <c r="C479" s="25"/>
       <c r="D479" s="25"/>
       <c r="E479" s="38" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="25" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B480" s="29" t="s">
         <v>609</v>
@@ -7744,12 +7771,12 @@
       <c r="C480" s="25"/>
       <c r="D480" s="25"/>
       <c r="E480" s="38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="25" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="B481" s="29" t="s">
         <v>609</v>
@@ -7757,12 +7784,12 @@
       <c r="C481" s="25"/>
       <c r="D481" s="25"/>
       <c r="E481" s="38" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" s="25" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B482" s="29" t="s">
         <v>609</v>
@@ -7770,12 +7797,12 @@
       <c r="C482" s="25"/>
       <c r="D482" s="25"/>
       <c r="E482" s="38" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" s="25" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B483" s="29" t="s">
         <v>609</v>
@@ -7783,12 +7810,12 @@
       <c r="C483" s="25"/>
       <c r="D483" s="25"/>
       <c r="E483" s="38" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" s="25" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B484" s="29" t="s">
         <v>609</v>
@@ -7796,12 +7823,12 @@
       <c r="C484" s="25"/>
       <c r="D484" s="25"/>
       <c r="E484" s="38" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A485" s="25" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B485" s="29" t="s">
         <v>609</v>
@@ -7809,12 +7836,12 @@
       <c r="C485" s="25"/>
       <c r="D485" s="25"/>
       <c r="E485" s="38" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="486" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A486" s="25" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B486" s="29" t="s">
         <v>609</v>
@@ -7822,12 +7849,12 @@
       <c r="C486" s="25"/>
       <c r="D486" s="25"/>
       <c r="E486" s="38" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A487" s="25" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B487" s="29" t="s">
         <v>609</v>
@@ -7835,12 +7862,12 @@
       <c r="C487" s="25"/>
       <c r="D487" s="25"/>
       <c r="E487" s="38" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" s="25" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B488" s="29" t="s">
         <v>609</v>
@@ -7848,12 +7875,12 @@
       <c r="C488" s="25"/>
       <c r="D488" s="25"/>
       <c r="E488" s="38" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="25" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B489" s="29" t="s">
         <v>609</v>
@@ -7861,12 +7888,12 @@
       <c r="C489" s="25"/>
       <c r="D489" s="25"/>
       <c r="E489" s="38" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A490" s="25" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B490" s="29" t="s">
         <v>609</v>
@@ -7874,12 +7901,12 @@
       <c r="C490" s="25"/>
       <c r="D490" s="25"/>
       <c r="E490" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" s="25" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B491" s="29" t="s">
         <v>609</v>
@@ -7887,12 +7914,12 @@
       <c r="C491" s="25"/>
       <c r="D491" s="25"/>
       <c r="E491" s="38" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A492" s="25" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B492" s="29" t="s">
         <v>609</v>
@@ -7900,12 +7927,12 @@
       <c r="C492" s="25"/>
       <c r="D492" s="25"/>
       <c r="E492" s="38" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" s="25" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B493" s="29" t="s">
         <v>609</v>
@@ -7913,12 +7940,12 @@
       <c r="C493" s="25"/>
       <c r="D493" s="25"/>
       <c r="E493" s="38" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" s="25" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B494" s="29" t="s">
         <v>609</v>
@@ -7926,12 +7953,12 @@
       <c r="C494" s="25"/>
       <c r="D494" s="25"/>
       <c r="E494" s="38" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" s="25" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B495" s="29" t="s">
         <v>609</v>
@@ -7939,12 +7966,12 @@
       <c r="C495" s="25"/>
       <c r="D495" s="25"/>
       <c r="E495" s="38" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" s="25" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B496" s="29" t="s">
         <v>609</v>
@@ -7952,12 +7979,12 @@
       <c r="C496" s="25"/>
       <c r="D496" s="25"/>
       <c r="E496" s="38" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" s="25" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B497" s="29" t="s">
         <v>609</v>
@@ -7965,12 +7992,12 @@
       <c r="C497" s="25"/>
       <c r="D497" s="25"/>
       <c r="E497" s="38" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" s="25" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B498" s="29" t="s">
         <v>609</v>
@@ -7978,12 +8005,12 @@
       <c r="C498" s="25"/>
       <c r="D498" s="25"/>
       <c r="E498" s="38" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" s="25" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B499" s="29" t="s">
         <v>609</v>
@@ -7991,12 +8018,12 @@
       <c r="C499" s="25"/>
       <c r="D499" s="25"/>
       <c r="E499" s="38" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" s="25" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B500" s="29" t="s">
         <v>609</v>
@@ -8004,12 +8031,12 @@
       <c r="C500" s="25"/>
       <c r="D500" s="25"/>
       <c r="E500" s="38" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A501" s="25" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B501" s="29" t="s">
         <v>609</v>
@@ -8017,12 +8044,12 @@
       <c r="C501" s="25"/>
       <c r="D501" s="25"/>
       <c r="E501" s="38" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" s="25" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B502" s="29" t="s">
         <v>609</v>
@@ -8030,12 +8057,12 @@
       <c r="C502" s="25"/>
       <c r="D502" s="25"/>
       <c r="E502" s="38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A503" s="25" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B503" s="29" t="s">
         <v>609</v>
@@ -8043,12 +8070,12 @@
       <c r="C503" s="25"/>
       <c r="D503" s="25"/>
       <c r="E503" s="38" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" s="25" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B504" s="29" t="s">
         <v>609</v>
@@ -8056,19 +8083,71 @@
       <c r="C504" s="25"/>
       <c r="D504" s="25"/>
       <c r="E504" s="38" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="25" t="s">
+        <v>667</v>
+      </c>
+      <c r="B505" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C505" s="25"/>
+      <c r="D505" s="25"/>
+      <c r="E505" s="38" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B506" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C506" s="25"/>
+      <c r="D506" s="25"/>
+      <c r="E506" s="38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="B507" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C507" s="25"/>
+      <c r="D507" s="25"/>
+      <c r="E507" s="38" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="25" t="s">
+        <v>673</v>
+      </c>
+      <c r="B508" s="29" t="s">
+        <v>609</v>
+      </c>
+      <c r="C508" s="25"/>
+      <c r="D508" s="25"/>
+      <c r="E508" s="38" t="s">
         <v>674</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A342:E342"/>
-    <mergeCell ref="A349:E349"/>
-    <mergeCell ref="A291:E291"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A353:E353"/>
+    <mergeCell ref="A295:E295"/>
     <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A219:E219"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A222:E222"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1"/>

--- a/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
+++ b/test-results/cloudreader/spreadsheets/user-OS-version-browser-date.xlsx
@@ -2735,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="22">
-        <f>B33/28</f>
+        <f>B33/29</f>
         <v>0</v>
       </c>
       <c r="D33" s="2"/>
